--- a/LISTADO_PEDIDO_COMPRAS/data/input/CLASIFICACION_ABC+D_MAF_P1_2025.xlsx
+++ b/LISTADO_PEDIDO_COMPRAS/data/input/CLASIFICACION_ABC+D_MAF_P1_2025.xlsx
@@ -9178,17 +9178,17 @@
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>7201000001</t>
+          <t>7201480001</t>
         </is>
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>RANUNCULUS ASIATICUS</t>
+          <t>CALENDULA OFFICINALIS</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr">
         <is>
-          <t>C17A20</t>
+          <t>M11A20</t>
         </is>
       </c>
       <c r="D26" s="3" t="inlineStr">
@@ -9210,37 +9210,37 @@
         <v>15</v>
       </c>
       <c r="H26" s="4" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="I26" s="4" t="n">
-        <v>33.96</v>
+        <v>43.78</v>
       </c>
       <c r="J26" s="4" t="n">
-        <v>16.35</v>
+        <v>25.28</v>
       </c>
       <c r="K26" s="4" t="n">
-        <v>33.33</v>
+        <v>36.67</v>
       </c>
       <c r="L26" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.5</v>
+        <v>2.8</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>1.5</v>
+        <v>8.4</v>
       </c>
       <c r="O26" s="4" t="n">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="P26" s="4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q26" s="4" t="n">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="R26" s="4" t="n">
-        <v>206.67</v>
+        <v>160</v>
       </c>
       <c r="S26" s="5" t="n">
         <v>30</v>
@@ -9257,7 +9257,7 @@
       </c>
       <c r="V26" s="4" t="inlineStr">
         <is>
-          <t>Compra 28/01/2025</t>
+          <t>Compra 04/02/2025</t>
         </is>
       </c>
       <c r="W26" s="4" t="inlineStr">
@@ -9269,17 +9269,17 @@
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>7201480001</t>
+          <t>7201000001</t>
         </is>
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>CALENDULA OFFICINALIS</t>
+          <t>RANUNCULUS ASIATICUS</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr">
         <is>
-          <t>M11A20</t>
+          <t>C17A20</t>
         </is>
       </c>
       <c r="D27" s="3" t="inlineStr">
@@ -9301,37 +9301,37 @@
         <v>15</v>
       </c>
       <c r="H27" s="4" t="n">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="I27" s="4" t="n">
-        <v>43.78</v>
+        <v>33.96</v>
       </c>
       <c r="J27" s="4" t="n">
-        <v>25.28</v>
+        <v>16.35</v>
       </c>
       <c r="K27" s="4" t="n">
-        <v>36.67</v>
+        <v>33.33</v>
       </c>
       <c r="L27" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>2.8</v>
+        <v>0.5</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>8.4</v>
+        <v>1.5</v>
       </c>
       <c r="O27" s="4" t="n">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="P27" s="4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q27" s="4" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="R27" s="4" t="n">
-        <v>160</v>
+        <v>206.67</v>
       </c>
       <c r="S27" s="5" t="n">
         <v>30</v>
@@ -9348,7 +9348,7 @@
       </c>
       <c r="V27" s="4" t="inlineStr">
         <is>
-          <t>Compra 04/02/2025</t>
+          <t>Compra 28/01/2025</t>
         </is>
       </c>
       <c r="W27" s="4" t="inlineStr">
@@ -14073,12 +14073,12 @@
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>7905130003</t>
+          <t>7905130013</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>COL BRUSELAS</t>
+          <t>COL DE MILAN</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
@@ -14114,10 +14114,10 @@
         <v>5.54</v>
       </c>
       <c r="K14" s="4" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="L14" s="4" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>0.4</v>
@@ -14126,10 +14126,10 @@
         <v>1.1</v>
       </c>
       <c r="O14" s="4" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="P14" s="4" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="Q14" s="4" t="n">
         <v>59</v>
@@ -14147,7 +14147,7 @@
       </c>
       <c r="U14" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.68€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 14.05€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V14" s="4" t="inlineStr">
@@ -14164,12 +14164,12 @@
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>7905130013</t>
+          <t>7905130003</t>
         </is>
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>COL DE MILAN</t>
+          <t>COL BRUSELAS</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
@@ -14205,10 +14205,10 @@
         <v>5.54</v>
       </c>
       <c r="K15" s="4" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="L15" s="4" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="M15" s="5" t="n">
         <v>0.4</v>
@@ -14217,10 +14217,10 @@
         <v>1.1</v>
       </c>
       <c r="O15" s="4" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="P15" s="4" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="Q15" s="4" t="n">
         <v>59</v>
@@ -14238,7 +14238,7 @@
       </c>
       <c r="U15" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 14.05€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.68€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V15" s="4" t="inlineStr">
@@ -15893,12 +15893,12 @@
     <row r="34">
       <c r="A34" s="3" t="inlineStr">
         <is>
-          <t>7905040001</t>
+          <t>7905040000</t>
         </is>
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>PIMIENTO ITALIANO</t>
+          <t>PEPINO</t>
         </is>
       </c>
       <c r="C34" s="3" t="inlineStr">
@@ -15928,10 +15928,10 @@
         <v>4</v>
       </c>
       <c r="I34" s="4" t="n">
-        <v>9.960000000000001</v>
+        <v>11.4</v>
       </c>
       <c r="J34" s="4" t="n">
-        <v>5.17</v>
+        <v>6.48</v>
       </c>
       <c r="K34" s="4" t="n">
         <v>26.67</v>
@@ -15949,7 +15949,7 @@
         <v>11</v>
       </c>
       <c r="P34" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34" s="4" t="n">
         <v>3</v>
@@ -15984,17 +15984,17 @@
     <row r="35">
       <c r="A35" s="3" t="inlineStr">
         <is>
-          <t>7803250003</t>
+          <t>7905040001</t>
         </is>
       </c>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>ORIGANUM VULGARE</t>
+          <t>PIMIENTO ITALIANO</t>
         </is>
       </c>
       <c r="C35" s="3" t="inlineStr">
         <is>
-          <t>M105A10</t>
+          <t>M105A20</t>
         </is>
       </c>
       <c r="D35" s="3" t="inlineStr">
@@ -16004,12 +16004,12 @@
       </c>
       <c r="E35" s="4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F35" s="4" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G35" s="4" t="n">
@@ -16019,13 +16019,13 @@
         <v>4</v>
       </c>
       <c r="I35" s="4" t="n">
-        <v>10</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="J35" s="4" t="n">
-        <v>5.21</v>
+        <v>5.17</v>
       </c>
       <c r="K35" s="4" t="n">
-        <v>44.44</v>
+        <v>26.67</v>
       </c>
       <c r="L35" s="4" t="n">
         <v>0</v>
@@ -16037,55 +16037,55 @@
         <v>1.5</v>
       </c>
       <c r="O35" s="4" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P35" s="4" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="Q35" s="4" t="n">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="R35" s="4" t="n">
-        <v>393.33</v>
+        <v>20</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="T35" s="7" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>0</v>
+      </c>
+      <c r="T35" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U35" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 2.84€. Prioridad máxima.</t>
+          <t>MANTENER SIN DESCUENTO: Stock fresco de calidad. Reducir compras 25% próxima temporada. Stock actual suficiente para 162 días.</t>
         </is>
       </c>
       <c r="V35" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 25/02/2025</t>
         </is>
       </c>
       <c r="W35" s="4" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>17</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="3" t="inlineStr">
         <is>
-          <t>7905040000</t>
+          <t>7803250003</t>
         </is>
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>PEPINO</t>
+          <t>ORIGANUM VULGARE</t>
         </is>
       </c>
       <c r="C36" s="3" t="inlineStr">
         <is>
-          <t>M105A20</t>
+          <t>M105A10</t>
         </is>
       </c>
       <c r="D36" s="3" t="inlineStr">
@@ -16095,12 +16095,12 @@
       </c>
       <c r="E36" s="4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F36" s="4" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G36" s="4" t="n">
@@ -16110,13 +16110,13 @@
         <v>4</v>
       </c>
       <c r="I36" s="4" t="n">
-        <v>11.4</v>
+        <v>10</v>
       </c>
       <c r="J36" s="4" t="n">
-        <v>6.48</v>
+        <v>5.21</v>
       </c>
       <c r="K36" s="4" t="n">
-        <v>26.67</v>
+        <v>44.44</v>
       </c>
       <c r="L36" s="4" t="n">
         <v>0</v>
@@ -16128,38 +16128,38 @@
         <v>1.5</v>
       </c>
       <c r="O36" s="4" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P36" s="4" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Q36" s="4" t="n">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="R36" s="4" t="n">
-        <v>20</v>
+        <v>393.33</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T36" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>30</v>
+      </c>
+      <c r="T36" s="7" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U36" s="3" t="inlineStr">
         <is>
-          <t>MANTENER SIN DESCUENTO: Stock fresco de calidad. Reducir compras 25% próxima temporada. Stock actual suficiente para 162 días.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 2.84€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V36" s="4" t="inlineStr">
         <is>
-          <t>Compra 25/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W36" s="4" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>14</t>
         </is>
       </c>
     </row>
@@ -17167,17 +17167,17 @@
     <row r="48">
       <c r="A48" s="3" t="inlineStr">
         <is>
-          <t>7803180002</t>
+          <t>7206030004</t>
         </is>
       </c>
       <c r="B48" s="3" t="inlineStr">
         <is>
-          <t>PETROSELINUM CRISPUM (PEREJIL HOJA LISA)</t>
+          <t>CYCLAMEN PERSICUM ABANICO</t>
         </is>
       </c>
       <c r="C48" s="3" t="inlineStr">
         <is>
-          <t>M14A20</t>
+          <t>M14A50</t>
         </is>
       </c>
       <c r="D48" s="3" t="inlineStr">
@@ -17187,88 +17187,88 @@
       </c>
       <c r="E48" s="4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F48" s="4" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G48" s="4" t="n">
         <v>15</v>
       </c>
       <c r="H48" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I48" s="4" t="n">
-        <v>7.98</v>
+        <v>6.99</v>
       </c>
       <c r="J48" s="4" t="n">
-        <v>4.45</v>
+        <v>3.55</v>
       </c>
       <c r="K48" s="4" t="n">
-        <v>28.57</v>
+        <v>0</v>
       </c>
       <c r="L48" s="4" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="N48" s="5" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="O48" s="4" t="n">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="P48" s="4" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="Q48" s="4" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R48" s="4" t="n">
-        <v>393.33</v>
+        <v>0</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="T48" s="7" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>0</v>
+      </c>
+      <c r="T48" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U48" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 6.12€. Prioridad máxima.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V48" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W48" s="4" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>25</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="3" t="inlineStr">
         <is>
-          <t>7206030004</t>
+          <t>7803180002</t>
         </is>
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>CYCLAMEN PERSICUM ABANICO</t>
+          <t>PETROSELINUM CRISPUM (PEREJIL HOJA LISA)</t>
         </is>
       </c>
       <c r="C49" s="3" t="inlineStr">
         <is>
-          <t>M14A50</t>
+          <t>M14A20</t>
         </is>
       </c>
       <c r="D49" s="3" t="inlineStr">
@@ -17278,71 +17278,71 @@
       </c>
       <c r="E49" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F49" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G49" s="4" t="n">
         <v>15</v>
       </c>
       <c r="H49" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I49" s="4" t="n">
-        <v>6.99</v>
+        <v>7.98</v>
       </c>
       <c r="J49" s="4" t="n">
-        <v>3.55</v>
+        <v>4.45</v>
       </c>
       <c r="K49" s="4" t="n">
-        <v>0</v>
+        <v>28.57</v>
       </c>
       <c r="L49" s="4" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="N49" s="5" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="O49" s="4" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="P49" s="4" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="Q49" s="4" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R49" s="4" t="n">
-        <v>0</v>
+        <v>393.33</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T49" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>30</v>
+      </c>
+      <c r="T49" s="7" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U49" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 6.12€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V49" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W49" s="4" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>14</t>
         </is>
       </c>
     </row>
@@ -18987,32 +18987,32 @@
     <row r="68">
       <c r="A68" s="3" t="inlineStr">
         <is>
-          <t>7401250001</t>
+          <t>7205030001</t>
         </is>
       </c>
       <c r="B68" s="3" t="inlineStr">
         <is>
-          <t>DIANTHUS BARBATUS</t>
+          <t>CYCLAMEN MINI</t>
         </is>
       </c>
       <c r="C68" s="3" t="inlineStr">
         <is>
-          <t>M13A20</t>
+          <t>M105A10</t>
         </is>
       </c>
       <c r="D68" s="3" t="inlineStr">
         <is>
-          <t>BICOLOR</t>
+          <t>BLANCO</t>
         </is>
       </c>
       <c r="E68" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F68" s="4" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G68" s="4" t="n">
@@ -19078,32 +19078,32 @@
     <row r="69">
       <c r="A69" s="3" t="inlineStr">
         <is>
-          <t>7205030001</t>
+          <t>7401250001</t>
         </is>
       </c>
       <c r="B69" s="3" t="inlineStr">
         <is>
-          <t>CYCLAMEN MINI</t>
+          <t>DIANTHUS BARBATUS</t>
         </is>
       </c>
       <c r="C69" s="3" t="inlineStr">
         <is>
-          <t>M105A10</t>
+          <t>M13A20</t>
         </is>
       </c>
       <c r="D69" s="3" t="inlineStr">
         <is>
-          <t>BLANCO</t>
+          <t>BICOLOR</t>
         </is>
       </c>
       <c r="E69" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F69" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G69" s="4" t="n">
@@ -20606,17 +20606,17 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>7203280001</t>
+          <t>7401590001</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>LANTANA CAMARA</t>
+          <t>PAEONIA LACTIFLORA</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2I5LA25</t>
+          <t>M14A25</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -20626,12 +20626,12 @@
       </c>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G2" s="4" t="n">
@@ -20650,7 +20650,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="M2" s="5" t="n">
         <v>0</v>
@@ -20659,19 +20659,19 @@
         <v>0</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="P2" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>393.33</v>
+        <v>0</v>
       </c>
       <c r="S2" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T2" s="7" t="inlineStr">
         <is>
@@ -20680,12 +20680,12 @@
       </c>
       <c r="U2" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.16€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V2" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 28/02/2025</t>
         </is>
       </c>
       <c r="W2" s="4" t="inlineStr">
@@ -20697,17 +20697,17 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>7803160006</t>
+          <t>7401740025</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>MENTHA SPICATA</t>
+          <t>ARGYRANTHEMUM FRUTESCENS MIX</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>M13A25</t>
+          <t>M105A15</t>
         </is>
       </c>
       <c r="D3" s="3" t="inlineStr">
@@ -20717,12 +20717,12 @@
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G3" s="4" t="n">
@@ -20741,7 +20741,7 @@
         <v>0</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="M3" s="5" t="n">
         <v>0</v>
@@ -20750,19 +20750,19 @@
         <v>0</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="P3" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>153.33</v>
+        <v>20</v>
       </c>
       <c r="S3" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T3" s="7" t="inlineStr">
         <is>
@@ -20771,12 +20771,12 @@
       </c>
       <c r="U3" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V3" s="4" t="inlineStr">
         <is>
-          <t>Compra 05/02/2025</t>
+          <t>Compra 25/02/2025</t>
         </is>
       </c>
       <c r="W3" s="4" t="inlineStr">
@@ -20788,17 +20788,17 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>7401740023</t>
+          <t>7905070001</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>ARGYRANTHEMUM FRUTESCENS</t>
+          <t>CEBOLLA FIGUERAS</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>3LA40</t>
+          <t>PACK12</t>
         </is>
       </c>
       <c r="D4" s="3" t="inlineStr">
@@ -20808,12 +20808,12 @@
       </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G4" s="4" t="n">
@@ -20832,7 +20832,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M4" s="5" t="n">
         <v>0</v>
@@ -20841,19 +20841,19 @@
         <v>0</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P4" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>393.33</v>
+        <v>20</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T4" s="7" t="inlineStr">
         <is>
@@ -20862,12 +20862,12 @@
       </c>
       <c r="U4" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 11.14€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V4" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 25/02/2025</t>
         </is>
       </c>
       <c r="W4" s="4" t="inlineStr">
@@ -20879,16 +20879,24 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>7201530006</t>
+          <t>7206030002</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>HYACINTHUS ORIENTALIS</t>
-        </is>
-      </c>
-      <c r="C5" s="3" t="inlineStr"/>
-      <c r="D5" s="3" t="inlineStr"/>
+          <t>CYCLAMEN PERSICUM</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>C17A40</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
           <t>72</t>
@@ -20915,7 +20923,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>0</v>
@@ -20924,7 +20932,7 @@
         <v>0</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="P5" s="4" t="n">
         <v>59</v>
@@ -20945,7 +20953,7 @@
       </c>
       <c r="U5" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.43€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 42.07€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V5" s="4" t="inlineStr">
@@ -20962,17 +20970,17 @@
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>7401070000</t>
+          <t>7803160003</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>AQUILEGIA CAERULEA</t>
+          <t>MENTHA SATIVA</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>1I6LA20</t>
+          <t>M13A20</t>
         </is>
       </c>
       <c r="D6" s="3" t="inlineStr">
@@ -20982,12 +20990,12 @@
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G6" s="4" t="n">
@@ -21006,7 +21014,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="M6" s="5" t="n">
         <v>0</v>
@@ -21015,19 +21023,19 @@
         <v>0</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="P6" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>20</v>
+        <v>393.33</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T6" s="7" t="inlineStr">
         <is>
@@ -21036,12 +21044,12 @@
       </c>
       <c r="U6" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.99€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V6" s="4" t="inlineStr">
         <is>
-          <t>Compra 25/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W6" s="4" t="inlineStr">
@@ -21053,17 +21061,17 @@
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>7401250005</t>
+          <t>7804230002</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>DIANTHUS CARIOPHILUS MINI</t>
+          <t>THYMUS X CITRIODORUS AUREOVARIEGATA</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>M105A15</t>
+          <t>10LA30</t>
         </is>
       </c>
       <c r="D7" s="3" t="inlineStr">
@@ -21073,12 +21081,12 @@
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G7" s="4" t="n">
@@ -21097,7 +21105,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="M7" s="5" t="n">
         <v>0</v>
@@ -21106,19 +21114,19 @@
         <v>0</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="P7" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>20</v>
+        <v>393.33</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T7" s="7" t="inlineStr">
         <is>
@@ -21127,12 +21135,12 @@
       </c>
       <c r="U7" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 44.54€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V7" s="4" t="inlineStr">
         <is>
-          <t>Compra 25/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W7" s="4" t="inlineStr">
@@ -21144,17 +21152,17 @@
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>7804200001</t>
+          <t>7401740010</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>ROSMARINUS OFFICINALIS</t>
+          <t>DOROTHEANTHUS BELLIDIFORMIS</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>5LA30</t>
+          <t>M105A15</t>
         </is>
       </c>
       <c r="D8" s="3" t="inlineStr">
@@ -21164,12 +21172,12 @@
       </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G8" s="4" t="n">
@@ -21188,7 +21196,7 @@
         <v>0</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>0</v>
@@ -21197,16 +21205,16 @@
         <v>0</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="P8" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>53.33</v>
+        <v>20</v>
       </c>
       <c r="S8" s="5" t="n">
         <v>0</v>
@@ -21223,7 +21231,7 @@
       </c>
       <c r="V8" s="4" t="inlineStr">
         <is>
-          <t>Compra 20/02/2025</t>
+          <t>Compra 25/02/2025</t>
         </is>
       </c>
       <c r="W8" s="4" t="inlineStr">
@@ -21235,17 +21243,17 @@
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>7804230002</t>
+          <t>7901010009</t>
         </is>
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>THYMUS X CITRIODORUS AUREOVARIEGATA</t>
+          <t>FRAGARIA ANANASSA - FRESA CHARLOTTE</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>C16A20</t>
+          <t>M105A10</t>
         </is>
       </c>
       <c r="D9" s="3" t="inlineStr">
@@ -21255,12 +21263,12 @@
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G9" s="4" t="n">
@@ -21279,7 +21287,7 @@
         <v>0</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="M9" s="5" t="n">
         <v>0</v>
@@ -21288,19 +21296,19 @@
         <v>0</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="P9" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>393.33</v>
+        <v>20</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T9" s="7" t="inlineStr">
         <is>
@@ -21309,12 +21317,12 @@
       </c>
       <c r="U9" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 11.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V9" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 25/02/2025</t>
         </is>
       </c>
       <c r="W9" s="4" t="inlineStr">
@@ -21326,17 +21334,17 @@
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>7805020001</t>
+          <t>7803170001</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>LAVANDULA ANGUSTIFOLIA</t>
+          <t>RUDA GRAVEOLENS</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>T25A25</t>
+          <t>M13A15</t>
         </is>
       </c>
       <c r="D10" s="3" t="inlineStr">
@@ -21370,7 +21378,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="M10" s="5" t="n">
         <v>0</v>
@@ -21379,7 +21387,7 @@
         <v>0</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="P10" s="4" t="n">
         <v>59</v>
@@ -21400,7 +21408,7 @@
       </c>
       <c r="U10" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 16.83€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 20.73€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V10" s="4" t="inlineStr">
@@ -21417,24 +21425,16 @@
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>7206100001</t>
+          <t>7201530003</t>
         </is>
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>PRIMULA OBCONICA</t>
-        </is>
-      </c>
-      <c r="C11" s="3" t="inlineStr">
-        <is>
-          <t>M105A20</t>
-        </is>
-      </c>
-      <c r="D11" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>CAPSICUM MIX M10</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="inlineStr"/>
+      <c r="D11" s="3" t="inlineStr"/>
       <c r="E11" s="4" t="inlineStr">
         <is>
           <t>72</t>
@@ -21461,7 +21461,7 @@
         <v>0</v>
       </c>
       <c r="L11" s="4" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>0</v>
@@ -21470,19 +21470,19 @@
         <v>0</v>
       </c>
       <c r="O11" s="4" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="P11" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q11" s="4" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R11" s="4" t="n">
-        <v>0</v>
+        <v>393.33</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T11" s="7" t="inlineStr">
         <is>
@@ -21491,12 +21491,12 @@
       </c>
       <c r="U11" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 8.02€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V11" s="4" t="inlineStr">
         <is>
-          <t>Compra 28/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W11" s="4" t="inlineStr">
@@ -21508,17 +21508,17 @@
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>7803160003</t>
+          <t>7501020003</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>MENTHA SATIVA</t>
+          <t>ERICA GRACILIS ROOD</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>M13A20</t>
+          <t>M12A15</t>
         </is>
       </c>
       <c r="D12" s="3" t="inlineStr">
@@ -21528,12 +21528,12 @@
       </c>
       <c r="E12" s="4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>75</t>
         </is>
       </c>
       <c r="F12" s="4" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>PLANTAS TRADICIONALES</t>
         </is>
       </c>
       <c r="G12" s="4" t="n">
@@ -21552,7 +21552,7 @@
         <v>0</v>
       </c>
       <c r="L12" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M12" s="5" t="n">
         <v>0</v>
@@ -21561,7 +21561,7 @@
         <v>0</v>
       </c>
       <c r="O12" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P12" s="4" t="n">
         <v>59</v>
@@ -21582,7 +21582,7 @@
       </c>
       <c r="U12" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.99€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 2.21€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V12" s="4" t="inlineStr">
@@ -21599,17 +21599,17 @@
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>7201350001</t>
+          <t>7703050001</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>TAGETES PATULA</t>
+          <t>PELARGONIUM X HORTORUM</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>M105A10</t>
+          <t>3LA45</t>
         </is>
       </c>
       <c r="D13" s="3" t="inlineStr">
@@ -21619,12 +21619,12 @@
       </c>
       <c r="E13" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>77</t>
         </is>
       </c>
       <c r="F13" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>PELARGONIUM EN MACETA</t>
         </is>
       </c>
       <c r="G13" s="4" t="n">
@@ -21643,7 +21643,7 @@
         <v>0</v>
       </c>
       <c r="L13" s="4" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="M13" s="5" t="n">
         <v>0</v>
@@ -21652,7 +21652,7 @@
         <v>0</v>
       </c>
       <c r="O13" s="4" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="P13" s="4" t="n">
         <v>59</v>
@@ -21690,24 +21690,32 @@
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>7201530001</t>
+          <t>7804230002</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>CAPSICUM ANNUUM</t>
-        </is>
-      </c>
-      <c r="C14" s="3" t="inlineStr"/>
-      <c r="D14" s="3" t="inlineStr"/>
+          <t>THYMUS X CITRIODORUS AUREOVARIEGATA</t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="inlineStr">
+        <is>
+          <t>C16A20</t>
+        </is>
+      </c>
+      <c r="D14" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E14" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F14" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G14" s="4" t="n">
@@ -21726,7 +21734,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>0</v>
@@ -21735,7 +21743,7 @@
         <v>0</v>
       </c>
       <c r="O14" s="4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P14" s="4" t="n">
         <v>59</v>
@@ -21756,7 +21764,7 @@
       </c>
       <c r="U14" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.89€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 11.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V14" s="4" t="inlineStr">
@@ -21864,17 +21872,17 @@
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>7803250001</t>
+          <t>7401740023</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>ALOYSIA TRIPHYLLA HIERBALUISA</t>
+          <t>ARGYRANTHEMUM FRUTESCENS</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>M105A10</t>
+          <t>3LA40</t>
         </is>
       </c>
       <c r="D16" s="3" t="inlineStr">
@@ -21884,12 +21892,12 @@
       </c>
       <c r="E16" s="4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F16" s="4" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G16" s="4" t="n">
@@ -21908,7 +21916,7 @@
         <v>0</v>
       </c>
       <c r="L16" s="4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M16" s="5" t="n">
         <v>0</v>
@@ -21917,7 +21925,7 @@
         <v>0</v>
       </c>
       <c r="O16" s="4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P16" s="4" t="n">
         <v>59</v>
@@ -21938,7 +21946,7 @@
       </c>
       <c r="U16" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 2.9€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 11.14€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V16" s="4" t="inlineStr">
@@ -21955,17 +21963,17 @@
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>7205080001</t>
+          <t>7905040016</t>
         </is>
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>BELLIS PERENNIS</t>
+          <t>PIMIENTO PICANTE CAYENA CHOCOLATE</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>M9A15</t>
+          <t>M105A20</t>
         </is>
       </c>
       <c r="D17" s="3" t="inlineStr">
@@ -21975,12 +21983,12 @@
       </c>
       <c r="E17" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F17" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G17" s="4" t="n">
@@ -21999,7 +22007,7 @@
         <v>0</v>
       </c>
       <c r="L17" s="4" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>0</v>
@@ -22008,16 +22016,16 @@
         <v>0</v>
       </c>
       <c r="O17" s="4" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="P17" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q17" s="4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R17" s="4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="S17" s="5" t="n">
         <v>0</v>
@@ -22034,7 +22042,7 @@
       </c>
       <c r="V17" s="4" t="inlineStr">
         <is>
-          <t>Compra 28/02/2025</t>
+          <t>Compra 25/02/2025</t>
         </is>
       </c>
       <c r="W17" s="4" t="inlineStr">
@@ -22046,17 +22054,17 @@
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>7901010001</t>
+          <t>7206020003</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>FRAGARIA ANANASSA</t>
+          <t>CHRYSANTHEMUN PALODOSUM</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>C25COLG</t>
+          <t>M13A20</t>
         </is>
       </c>
       <c r="D18" s="3" t="inlineStr">
@@ -22066,12 +22074,12 @@
       </c>
       <c r="E18" s="4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F18" s="4" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G18" s="4" t="n">
@@ -22120,7 +22128,7 @@
       </c>
       <c r="U18" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.78€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V18" s="4" t="inlineStr">
@@ -22137,17 +22145,17 @@
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>7501010003</t>
+          <t>7904120005</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>CALLUNA VULGARIS</t>
+          <t>LECHUGA ICEBERG</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>M105A10</t>
+          <t>PACK6</t>
         </is>
       </c>
       <c r="D19" s="3" t="inlineStr">
@@ -22157,12 +22165,12 @@
       </c>
       <c r="E19" s="4" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F19" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS TRADICIONALES</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G19" s="4" t="n">
@@ -22181,7 +22189,7 @@
         <v>0</v>
       </c>
       <c r="L19" s="4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M19" s="5" t="n">
         <v>0</v>
@@ -22190,7 +22198,7 @@
         <v>0</v>
       </c>
       <c r="O19" s="4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="P19" s="4" t="n">
         <v>59</v>
@@ -22211,7 +22219,7 @@
       </c>
       <c r="U19" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 5.63€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 12.25€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V19" s="4" t="inlineStr">
@@ -22228,17 +22236,17 @@
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>7206030005</t>
+          <t>7805110003</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>CYCLAMEN VINO TINTO</t>
+          <t>SALVIA MYCROFOLIA</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>M13A25</t>
+          <t>2I5LA45</t>
         </is>
       </c>
       <c r="D20" s="3" t="inlineStr">
@@ -22248,12 +22256,12 @@
       </c>
       <c r="E20" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F20" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G20" s="4" t="n">
@@ -22272,7 +22280,7 @@
         <v>0</v>
       </c>
       <c r="L20" s="4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M20" s="5" t="n">
         <v>0</v>
@@ -22281,7 +22289,7 @@
         <v>0</v>
       </c>
       <c r="O20" s="4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P20" s="4" t="n">
         <v>59</v>
@@ -22302,7 +22310,7 @@
       </c>
       <c r="U20" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 16.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 6.16€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V20" s="4" t="inlineStr">
@@ -22319,32 +22327,24 @@
     <row r="21">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>7501020003</t>
+          <t>7201530002</t>
         </is>
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>ERICA GRACILIS ROOD</t>
-        </is>
-      </c>
-      <c r="C21" s="3" t="inlineStr">
-        <is>
-          <t>M12A15</t>
-        </is>
-      </c>
-      <c r="D21" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>CAPSICUM ANNUUM VAR. ANNUUM</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="inlineStr"/>
+      <c r="D21" s="3" t="inlineStr"/>
       <c r="E21" s="4" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F21" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS TRADICIONALES</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G21" s="4" t="n">
@@ -22363,7 +22363,7 @@
         <v>0</v>
       </c>
       <c r="L21" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M21" s="5" t="n">
         <v>0</v>
@@ -22372,7 +22372,7 @@
         <v>0</v>
       </c>
       <c r="O21" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P21" s="4" t="n">
         <v>59</v>
@@ -22393,7 +22393,7 @@
       </c>
       <c r="U21" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 2.21€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.76€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V21" s="4" t="inlineStr">
@@ -22410,17 +22410,17 @@
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>7703050001</t>
+          <t>7804230001</t>
         </is>
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>PELARGONIUM X HORTORUM</t>
+          <t>THYMUS VULGARIS COMPACTUS</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
         <is>
-          <t>3LA45</t>
+          <t>2LA30</t>
         </is>
       </c>
       <c r="D22" s="3" t="inlineStr">
@@ -22430,12 +22430,12 @@
       </c>
       <c r="E22" s="4" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F22" s="4" t="inlineStr">
         <is>
-          <t>PELARGONIUM EN MACETA</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G22" s="4" t="n">
@@ -22454,7 +22454,7 @@
         <v>0</v>
       </c>
       <c r="L22" s="4" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="M22" s="5" t="n">
         <v>0</v>
@@ -22463,19 +22463,19 @@
         <v>0</v>
       </c>
       <c r="O22" s="4" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="P22" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q22" s="4" t="n">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="R22" s="4" t="n">
-        <v>20</v>
+        <v>393.33</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T22" s="7" t="inlineStr">
         <is>
@@ -22484,12 +22484,12 @@
       </c>
       <c r="U22" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.83€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V22" s="4" t="inlineStr">
         <is>
-          <t>Compra 25/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W22" s="4" t="inlineStr">
@@ -22501,17 +22501,17 @@
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>7804160003</t>
+          <t>7206020004</t>
         </is>
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>MENTHA SUAVEOLENS</t>
+          <t>CHRYSANTHEMUN IND CARNAVAL</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>C16A20</t>
+          <t>C23A30</t>
         </is>
       </c>
       <c r="D23" s="3" t="inlineStr">
@@ -22521,12 +22521,12 @@
       </c>
       <c r="E23" s="4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F23" s="4" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G23" s="4" t="n">
@@ -22545,7 +22545,7 @@
         <v>0</v>
       </c>
       <c r="L23" s="4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="M23" s="5" t="n">
         <v>0</v>
@@ -22554,7 +22554,7 @@
         <v>0</v>
       </c>
       <c r="O23" s="4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="P23" s="4" t="n">
         <v>59</v>
@@ -22575,7 +22575,7 @@
       </c>
       <c r="U23" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 8.78€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 2.6€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V23" s="4" t="inlineStr">
@@ -22592,17 +22592,17 @@
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>7401740034</t>
+          <t>7205080001</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>SPIRAEA JAPONICA "ANTHONY WATERER"</t>
+          <t>BELLIS PERENNIS</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr">
         <is>
-          <t>3LA55</t>
+          <t>M9A15</t>
         </is>
       </c>
       <c r="D24" s="3" t="inlineStr">
@@ -22612,12 +22612,12 @@
       </c>
       <c r="E24" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F24" s="4" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G24" s="4" t="n">
@@ -22636,7 +22636,7 @@
         <v>0</v>
       </c>
       <c r="L24" s="4" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="M24" s="5" t="n">
         <v>0</v>
@@ -22645,19 +22645,19 @@
         <v>0</v>
       </c>
       <c r="O24" s="4" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="P24" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q24" s="4" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R24" s="4" t="n">
-        <v>393.33</v>
+        <v>0</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T24" s="7" t="inlineStr">
         <is>
@@ -22666,12 +22666,12 @@
       </c>
       <c r="U24" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 13.61€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V24" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 28/02/2025</t>
         </is>
       </c>
       <c r="W24" s="4" t="inlineStr">
@@ -22683,24 +22683,16 @@
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>7206030002</t>
+          <t>7201480001</t>
         </is>
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>CYCLAMEN PERSICUM</t>
-        </is>
-      </c>
-      <c r="C25" s="3" t="inlineStr">
-        <is>
-          <t>C17A40</t>
-        </is>
-      </c>
-      <c r="D25" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>CALENDULA OFFICINALIS</t>
+        </is>
+      </c>
+      <c r="C25" s="3" t="inlineStr"/>
+      <c r="D25" s="3" t="inlineStr"/>
       <c r="E25" s="4" t="inlineStr">
         <is>
           <t>72</t>
@@ -22727,7 +22719,7 @@
         <v>0</v>
       </c>
       <c r="L25" s="4" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="M25" s="5" t="n">
         <v>0</v>
@@ -22736,7 +22728,7 @@
         <v>0</v>
       </c>
       <c r="O25" s="4" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="P25" s="4" t="n">
         <v>59</v>
@@ -22757,7 +22749,7 @@
       </c>
       <c r="U25" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 42.07€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.57€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V25" s="4" t="inlineStr">
@@ -22774,17 +22766,17 @@
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>7904120007</t>
+          <t>7901010005</t>
         </is>
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>LECHUGA MARAVILLA</t>
+          <t>FRESA SAN ANDREAS</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr">
         <is>
-          <t>PACK12</t>
+          <t>M105A10</t>
         </is>
       </c>
       <c r="D26" s="3" t="inlineStr">
@@ -22818,7 +22810,7 @@
         <v>0</v>
       </c>
       <c r="L26" s="4" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="M26" s="5" t="n">
         <v>0</v>
@@ -22827,19 +22819,19 @@
         <v>0</v>
       </c>
       <c r="O26" s="4" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="P26" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q26" s="4" t="n">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="R26" s="4" t="n">
-        <v>393.33</v>
+        <v>20</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T26" s="7" t="inlineStr">
         <is>
@@ -22848,12 +22840,12 @@
       </c>
       <c r="U26" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 12.6€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V26" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 25/02/2025</t>
         </is>
       </c>
       <c r="W26" s="4" t="inlineStr">
@@ -22865,17 +22857,17 @@
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>7905040009</t>
+          <t>7501010003</t>
         </is>
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>PIMIENTO PICANTE GUINDILLA VASCA</t>
+          <t>CALLUNA VULGARIS</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr">
         <is>
-          <t>M105A10</t>
+          <t>M13A10</t>
         </is>
       </c>
       <c r="D27" s="3" t="inlineStr">
@@ -22885,12 +22877,12 @@
       </c>
       <c r="E27" s="4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>75</t>
         </is>
       </c>
       <c r="F27" s="4" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>PLANTAS TRADICIONALES</t>
         </is>
       </c>
       <c r="G27" s="4" t="n">
@@ -22909,7 +22901,7 @@
         <v>0</v>
       </c>
       <c r="L27" s="4" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="M27" s="5" t="n">
         <v>0</v>
@@ -22918,19 +22910,19 @@
         <v>0</v>
       </c>
       <c r="O27" s="4" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="P27" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q27" s="4" t="n">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="R27" s="4" t="n">
-        <v>20</v>
+        <v>393.33</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T27" s="7" t="inlineStr">
         <is>
@@ -22939,12 +22931,12 @@
       </c>
       <c r="U27" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 8.89€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V27" s="4" t="inlineStr">
         <is>
-          <t>Compra 25/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W27" s="4" t="inlineStr">
@@ -22956,32 +22948,32 @@
     <row r="28">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t>7805020001</t>
+          <t>7503010004</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>LAVANDULA ANGUSTIFOLIA</t>
+          <t>CHRYSANTHEMUN POMPON</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr">
         <is>
-          <t>5LA30</t>
+          <t>T23A30</t>
         </is>
       </c>
       <c r="D28" s="3" t="inlineStr">
         <is>
-          <t>UNICO</t>
+          <t>BLANCO</t>
         </is>
       </c>
       <c r="E28" s="4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>75</t>
         </is>
       </c>
       <c r="F28" s="4" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>PLANTAS TRADICIONALES</t>
         </is>
       </c>
       <c r="G28" s="4" t="n">
@@ -23000,7 +22992,7 @@
         <v>0</v>
       </c>
       <c r="L28" s="4" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="M28" s="5" t="n">
         <v>0</v>
@@ -23009,7 +23001,7 @@
         <v>0</v>
       </c>
       <c r="O28" s="4" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="P28" s="4" t="n">
         <v>59</v>
@@ -23030,7 +23022,7 @@
       </c>
       <c r="U28" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 23.76€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 11.02€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V28" s="4" t="inlineStr">
@@ -23047,17 +23039,17 @@
     <row r="29">
       <c r="A29" s="3" t="inlineStr">
         <is>
-          <t>7401590001</t>
+          <t>7202520004</t>
         </is>
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>PAEONIA LACTIFLORA</t>
+          <t>NARCISSUS TETE A TETE AMARILLO</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr">
         <is>
-          <t>M14A25</t>
+          <t>M9A15</t>
         </is>
       </c>
       <c r="D29" s="3" t="inlineStr">
@@ -23067,12 +23059,12 @@
       </c>
       <c r="E29" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F29" s="4" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G29" s="4" t="n">
@@ -23091,7 +23083,7 @@
         <v>0</v>
       </c>
       <c r="L29" s="4" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="M29" s="5" t="n">
         <v>0</v>
@@ -23100,19 +23092,19 @@
         <v>0</v>
       </c>
       <c r="O29" s="4" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="P29" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q29" s="4" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R29" s="4" t="n">
-        <v>0</v>
+        <v>393.33</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T29" s="7" t="inlineStr">
         <is>
@@ -23121,12 +23113,12 @@
       </c>
       <c r="U29" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 14.7€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V29" s="4" t="inlineStr">
         <is>
-          <t>Compra 28/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W29" s="4" t="inlineStr">
@@ -23138,17 +23130,17 @@
     <row r="30">
       <c r="A30" s="3" t="inlineStr">
         <is>
-          <t>7905040016</t>
+          <t>7804160003</t>
         </is>
       </c>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>PIMIENTO PICANTE CAYENA CHOCOLATE</t>
+          <t>MENTHA SUAVEOLENS</t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr">
         <is>
-          <t>M105A20</t>
+          <t>C16A20</t>
         </is>
       </c>
       <c r="D30" s="3" t="inlineStr">
@@ -23158,12 +23150,12 @@
       </c>
       <c r="E30" s="4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F30" s="4" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G30" s="4" t="n">
@@ -23182,7 +23174,7 @@
         <v>0</v>
       </c>
       <c r="L30" s="4" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="M30" s="5" t="n">
         <v>0</v>
@@ -23191,19 +23183,19 @@
         <v>0</v>
       </c>
       <c r="O30" s="4" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="P30" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q30" s="4" t="n">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="R30" s="4" t="n">
-        <v>20</v>
+        <v>393.33</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T30" s="7" t="inlineStr">
         <is>
@@ -23212,12 +23204,12 @@
       </c>
       <c r="U30" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 8.78€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V30" s="4" t="inlineStr">
         <is>
-          <t>Compra 25/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W30" s="4" t="inlineStr">
@@ -23229,24 +23221,16 @@
     <row r="31">
       <c r="A31" s="3" t="inlineStr">
         <is>
-          <t>7202520004</t>
+          <t>7201530001</t>
         </is>
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>NARCISSUS TETE A TETE AMARILLO</t>
-        </is>
-      </c>
-      <c r="C31" s="3" t="inlineStr">
-        <is>
-          <t>M9A15</t>
-        </is>
-      </c>
-      <c r="D31" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>CAPSICUM ANNUUM</t>
+        </is>
+      </c>
+      <c r="C31" s="3" t="inlineStr"/>
+      <c r="D31" s="3" t="inlineStr"/>
       <c r="E31" s="4" t="inlineStr">
         <is>
           <t>72</t>
@@ -23273,7 +23257,7 @@
         <v>0</v>
       </c>
       <c r="L31" s="4" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="M31" s="5" t="n">
         <v>0</v>
@@ -23282,7 +23266,7 @@
         <v>0</v>
       </c>
       <c r="O31" s="4" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="P31" s="4" t="n">
         <v>59</v>
@@ -23303,7 +23287,7 @@
       </c>
       <c r="U31" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 14.7€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.89€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V31" s="4" t="inlineStr">
@@ -23320,12 +23304,12 @@
     <row r="32">
       <c r="A32" s="3" t="inlineStr">
         <is>
-          <t>7202520009</t>
+          <t>7201530011</t>
         </is>
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>SOLANUM PSEUDOCAPSICUM</t>
+          <t>FREESIA HYBRIDA</t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr">
@@ -23364,7 +23348,7 @@
         <v>0</v>
       </c>
       <c r="L32" s="4" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="M32" s="5" t="n">
         <v>0</v>
@@ -23373,19 +23357,19 @@
         <v>0</v>
       </c>
       <c r="O32" s="4" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="P32" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q32" s="4" t="n">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="R32" s="4" t="n">
-        <v>393.33</v>
+        <v>20</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T32" s="7" t="inlineStr">
         <is>
@@ -23394,12 +23378,12 @@
       </c>
       <c r="U32" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.31€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V32" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 25/02/2025</t>
         </is>
       </c>
       <c r="W32" s="4" t="inlineStr">
@@ -23411,17 +23395,17 @@
     <row r="33">
       <c r="A33" s="3" t="inlineStr">
         <is>
-          <t>7901010004</t>
+          <t>7805020001</t>
         </is>
       </c>
       <c r="B33" s="3" t="inlineStr">
         <is>
-          <t>FRAGARIA ANANASSA RED ROSE MIAM</t>
+          <t>LAVANDULA ANGUSTIFOLIA</t>
         </is>
       </c>
       <c r="C33" s="3" t="inlineStr">
         <is>
-          <t>1LA30</t>
+          <t>T25A25</t>
         </is>
       </c>
       <c r="D33" s="3" t="inlineStr">
@@ -23431,12 +23415,12 @@
       </c>
       <c r="E33" s="4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F33" s="4" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G33" s="4" t="n">
@@ -23455,7 +23439,7 @@
         <v>0</v>
       </c>
       <c r="L33" s="4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M33" s="5" t="n">
         <v>0</v>
@@ -23464,7 +23448,7 @@
         <v>0</v>
       </c>
       <c r="O33" s="4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P33" s="4" t="n">
         <v>59</v>
@@ -23485,7 +23469,7 @@
       </c>
       <c r="U33" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.34€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 16.83€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V33" s="4" t="inlineStr">
@@ -23502,17 +23486,17 @@
     <row r="34">
       <c r="A34" s="3" t="inlineStr">
         <is>
-          <t>7401250005</t>
+          <t>7904120008</t>
         </is>
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>DIANTHUS CARIOPHILUS MINI</t>
+          <t>LECHUGA TROCADERO</t>
         </is>
       </c>
       <c r="C34" s="3" t="inlineStr">
         <is>
-          <t>C17A25</t>
+          <t>PACK12</t>
         </is>
       </c>
       <c r="D34" s="3" t="inlineStr">
@@ -23522,12 +23506,12 @@
       </c>
       <c r="E34" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F34" s="4" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G34" s="4" t="n">
@@ -23546,7 +23530,7 @@
         <v>0</v>
       </c>
       <c r="L34" s="4" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="M34" s="5" t="n">
         <v>0</v>
@@ -23555,19 +23539,19 @@
         <v>0</v>
       </c>
       <c r="O34" s="4" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="P34" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q34" s="4" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="R34" s="4" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T34" s="7" t="inlineStr">
         <is>
@@ -23576,12 +23560,12 @@
       </c>
       <c r="U34" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V34" s="4" t="inlineStr">
         <is>
-          <t>Compra 25/02/2025</t>
+          <t>Compra 13/02/2025</t>
         </is>
       </c>
       <c r="W34" s="4" t="inlineStr">
@@ -23593,24 +23577,32 @@
     <row r="35">
       <c r="A35" s="3" t="inlineStr">
         <is>
-          <t>7201400002</t>
+          <t>7905030000</t>
         </is>
       </c>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>PORTULACA UMBRATICOLA</t>
-        </is>
-      </c>
-      <c r="C35" s="3" t="inlineStr"/>
-      <c r="D35" s="3" t="inlineStr"/>
+          <t>APIUM GRAVEOLENS (APIO)</t>
+        </is>
+      </c>
+      <c r="C35" s="3" t="inlineStr">
+        <is>
+          <t>PACK6</t>
+        </is>
+      </c>
+      <c r="D35" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E35" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F35" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G35" s="4" t="n">
@@ -23629,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="L35" s="4" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="M35" s="5" t="n">
         <v>0</v>
@@ -23638,16 +23630,16 @@
         <v>0</v>
       </c>
       <c r="O35" s="4" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="P35" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q35" s="4" t="n">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="R35" s="4" t="n">
-        <v>393.33</v>
+        <v>253.33</v>
       </c>
       <c r="S35" s="5" t="n">
         <v>30</v>
@@ -23659,12 +23651,12 @@
       </c>
       <c r="U35" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 2.58€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V35" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 21/01/2025</t>
         </is>
       </c>
       <c r="W35" s="4" t="inlineStr">
@@ -23676,17 +23668,17 @@
     <row r="36">
       <c r="A36" s="3" t="inlineStr">
         <is>
-          <t>7401740025</t>
+          <t>7804230002</t>
         </is>
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>ARGYRANTHEMUM FRUTESCENS MIX</t>
+          <t>THYMUS X CITRIODORUS AUREOVARIEGATA</t>
         </is>
       </c>
       <c r="C36" s="3" t="inlineStr">
         <is>
-          <t>2I5LA20</t>
+          <t>5LA25</t>
         </is>
       </c>
       <c r="D36" s="3" t="inlineStr">
@@ -23696,12 +23688,12 @@
       </c>
       <c r="E36" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F36" s="4" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G36" s="4" t="n">
@@ -23720,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="L36" s="4" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="M36" s="5" t="n">
         <v>0</v>
@@ -23729,19 +23721,19 @@
         <v>0</v>
       </c>
       <c r="O36" s="4" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="P36" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q36" s="4" t="n">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="R36" s="4" t="n">
-        <v>20</v>
+        <v>393.33</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T36" s="7" t="inlineStr">
         <is>
@@ -23750,12 +23742,12 @@
       </c>
       <c r="U36" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 79.46€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V36" s="4" t="inlineStr">
         <is>
-          <t>Compra 25/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W36" s="4" t="inlineStr">
@@ -23767,17 +23759,17 @@
     <row r="37">
       <c r="A37" s="3" t="inlineStr">
         <is>
-          <t>7401740043</t>
+          <t>7202140002</t>
         </is>
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>CONVOLVULUS CNEORUM</t>
+          <t>SOLENOSTEMON HYBRIDA SCUTELLARIOIDES</t>
         </is>
       </c>
       <c r="C37" s="3" t="inlineStr">
         <is>
-          <t>2LA30</t>
+          <t>M13A20</t>
         </is>
       </c>
       <c r="D37" s="3" t="inlineStr">
@@ -23787,12 +23779,12 @@
       </c>
       <c r="E37" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F37" s="4" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G37" s="4" t="n">
@@ -23811,7 +23803,7 @@
         <v>0</v>
       </c>
       <c r="L37" s="4" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="M37" s="5" t="n">
         <v>0</v>
@@ -23820,7 +23812,7 @@
         <v>0</v>
       </c>
       <c r="O37" s="4" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="P37" s="4" t="n">
         <v>59</v>
@@ -23841,7 +23833,7 @@
       </c>
       <c r="U37" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 29.99€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.12€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V37" s="4" t="inlineStr">
@@ -23858,17 +23850,17 @@
     <row r="38">
       <c r="A38" s="3" t="inlineStr">
         <is>
-          <t>7803170001</t>
+          <t>7901010002</t>
         </is>
       </c>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>RUDA GRAVEOLENS</t>
+          <t>FRAGARIA VESCA</t>
         </is>
       </c>
       <c r="C38" s="3" t="inlineStr">
         <is>
-          <t>M13A15</t>
+          <t>M105A10</t>
         </is>
       </c>
       <c r="D38" s="3" t="inlineStr">
@@ -23878,12 +23870,12 @@
       </c>
       <c r="E38" s="4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F38" s="4" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G38" s="4" t="n">
@@ -23902,7 +23894,7 @@
         <v>0</v>
       </c>
       <c r="L38" s="4" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="M38" s="5" t="n">
         <v>0</v>
@@ -23911,7 +23903,7 @@
         <v>0</v>
       </c>
       <c r="O38" s="4" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="P38" s="4" t="n">
         <v>59</v>
@@ -23932,7 +23924,7 @@
       </c>
       <c r="U38" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 20.73€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.89€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V38" s="4" t="inlineStr">
@@ -23949,32 +23941,24 @@
     <row r="39">
       <c r="A39" s="3" t="inlineStr">
         <is>
-          <t>7401740005</t>
+          <t>7201530006</t>
         </is>
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>LAMPRANTHUS AURANTIACUS MESEM</t>
-        </is>
-      </c>
-      <c r="C39" s="3" t="inlineStr">
-        <is>
-          <t>M105A15</t>
-        </is>
-      </c>
-      <c r="D39" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>HYACINTHUS ORIENTALIS</t>
+        </is>
+      </c>
+      <c r="C39" s="3" t="inlineStr"/>
+      <c r="D39" s="3" t="inlineStr"/>
       <c r="E39" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F39" s="4" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G39" s="4" t="n">
@@ -23993,7 +23977,7 @@
         <v>0</v>
       </c>
       <c r="L39" s="4" t="n">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="M39" s="5" t="n">
         <v>0</v>
@@ -24002,7 +23986,7 @@
         <v>0</v>
       </c>
       <c r="O39" s="4" t="n">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="P39" s="4" t="n">
         <v>59</v>
@@ -24023,7 +24007,7 @@
       </c>
       <c r="U39" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 43.68€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.43€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V39" s="4" t="inlineStr">
@@ -24040,17 +24024,17 @@
     <row r="40">
       <c r="A40" s="3" t="inlineStr">
         <is>
-          <t>7401150001</t>
+          <t>7201000001</t>
         </is>
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>CAMPANULA MEZCLA</t>
+          <t>RANUNCULUS ASIATICUS</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr">
         <is>
-          <t>M105A20</t>
+          <t>1I6LA20</t>
         </is>
       </c>
       <c r="D40" s="3" t="inlineStr">
@@ -24060,12 +24044,12 @@
       </c>
       <c r="E40" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F40" s="4" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G40" s="4" t="n">
@@ -24084,7 +24068,7 @@
         <v>0</v>
       </c>
       <c r="L40" s="4" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="M40" s="5" t="n">
         <v>0</v>
@@ -24093,16 +24077,16 @@
         <v>0</v>
       </c>
       <c r="O40" s="4" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="P40" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q40" s="4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R40" s="4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="S40" s="5" t="n">
         <v>0</v>
@@ -24119,7 +24103,7 @@
       </c>
       <c r="V40" s="4" t="inlineStr">
         <is>
-          <t>Compra 28/02/2025</t>
+          <t>Compra 25/02/2025</t>
         </is>
       </c>
       <c r="W40" s="4" t="inlineStr">
@@ -24131,17 +24115,17 @@
     <row r="41">
       <c r="A41" s="3" t="inlineStr">
         <is>
-          <t>7201000001</t>
+          <t>7203280002</t>
         </is>
       </c>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t>RANUNCULUS ASIATICUS</t>
+          <t>LANTANA CAMARA COPA</t>
         </is>
       </c>
       <c r="C41" s="3" t="inlineStr">
         <is>
-          <t>1I6LA20</t>
+          <t>C20A50</t>
         </is>
       </c>
       <c r="D41" s="3" t="inlineStr">
@@ -24175,7 +24159,7 @@
         <v>0</v>
       </c>
       <c r="L41" s="4" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="M41" s="5" t="n">
         <v>0</v>
@@ -24184,19 +24168,19 @@
         <v>0</v>
       </c>
       <c r="O41" s="4" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="P41" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q41" s="4" t="n">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="R41" s="4" t="n">
-        <v>20</v>
+        <v>393.33</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T41" s="7" t="inlineStr">
         <is>
@@ -24205,12 +24189,12 @@
       </c>
       <c r="U41" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 20.87€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V41" s="4" t="inlineStr">
         <is>
-          <t>Compra 25/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W41" s="4" t="inlineStr">
@@ -24222,17 +24206,17 @@
     <row r="42">
       <c r="A42" s="3" t="inlineStr">
         <is>
-          <t>7401740010</t>
+          <t>7401740020</t>
         </is>
       </c>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>DOROTHEANTHUS BELLIDIFORMIS</t>
+          <t>CAREX OSHIMENSIS</t>
         </is>
       </c>
       <c r="C42" s="3" t="inlineStr">
         <is>
-          <t>M105A15</t>
+          <t>2LA25</t>
         </is>
       </c>
       <c r="D42" s="3" t="inlineStr">
@@ -24266,7 +24250,7 @@
         <v>0</v>
       </c>
       <c r="L42" s="4" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="M42" s="5" t="n">
         <v>0</v>
@@ -24275,19 +24259,19 @@
         <v>0</v>
       </c>
       <c r="O42" s="4" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="P42" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q42" s="4" t="n">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="R42" s="4" t="n">
-        <v>20</v>
+        <v>393.33</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T42" s="7" t="inlineStr">
         <is>
@@ -24296,12 +24280,12 @@
       </c>
       <c r="U42" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.2€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V42" s="4" t="inlineStr">
         <is>
-          <t>Compra 25/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W42" s="4" t="inlineStr">
@@ -24313,17 +24297,17 @@
     <row r="43">
       <c r="A43" s="3" t="inlineStr">
         <is>
-          <t>7804160003</t>
+          <t>7904120006</t>
         </is>
       </c>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>MENTHA SUAVEOLENS</t>
+          <t>LECHUGA COGOLLO</t>
         </is>
       </c>
       <c r="C43" s="3" t="inlineStr">
         <is>
-          <t>5LA40</t>
+          <t>PACK6</t>
         </is>
       </c>
       <c r="D43" s="3" t="inlineStr">
@@ -24333,12 +24317,12 @@
       </c>
       <c r="E43" s="4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F43" s="4" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G43" s="4" t="n">
@@ -24357,7 +24341,7 @@
         <v>0</v>
       </c>
       <c r="L43" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M43" s="5" t="n">
         <v>0</v>
@@ -24366,7 +24350,7 @@
         <v>0</v>
       </c>
       <c r="O43" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P43" s="4" t="n">
         <v>59</v>
@@ -24387,7 +24371,7 @@
       </c>
       <c r="U43" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 7.22€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.54€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V43" s="4" t="inlineStr">
@@ -24404,12 +24388,12 @@
     <row r="44">
       <c r="A44" s="3" t="inlineStr">
         <is>
-          <t>7901010009</t>
+          <t>7803250001</t>
         </is>
       </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>FRAGARIA ANANASSA - FRESA CHARLOTTE</t>
+          <t>ALOYSIA TRIPHYLLA HIERBALUISA</t>
         </is>
       </c>
       <c r="C44" s="3" t="inlineStr">
@@ -24424,12 +24408,12 @@
       </c>
       <c r="E44" s="4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F44" s="4" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G44" s="4" t="n">
@@ -24448,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="L44" s="4" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="M44" s="5" t="n">
         <v>0</v>
@@ -24457,19 +24441,19 @@
         <v>0</v>
       </c>
       <c r="O44" s="4" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="P44" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q44" s="4" t="n">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="R44" s="4" t="n">
-        <v>20</v>
+        <v>393.33</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T44" s="7" t="inlineStr">
         <is>
@@ -24478,12 +24462,12 @@
       </c>
       <c r="U44" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 2.9€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V44" s="4" t="inlineStr">
         <is>
-          <t>Compra 25/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W44" s="4" t="inlineStr">
@@ -24495,17 +24479,17 @@
     <row r="45">
       <c r="A45" s="3" t="inlineStr">
         <is>
-          <t>7804230002</t>
+          <t>7401740025</t>
         </is>
       </c>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>THYMUS X CITRIODORUS AUREOVARIEGATA</t>
+          <t>ARGYRANTHEMUM FRUTESCENS MIX</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr">
         <is>
-          <t>10LA30</t>
+          <t>2I5LA20</t>
         </is>
       </c>
       <c r="D45" s="3" t="inlineStr">
@@ -24515,12 +24499,12 @@
       </c>
       <c r="E45" s="4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F45" s="4" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G45" s="4" t="n">
@@ -24539,7 +24523,7 @@
         <v>0</v>
       </c>
       <c r="L45" s="4" t="n">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="M45" s="5" t="n">
         <v>0</v>
@@ -24548,19 +24532,19 @@
         <v>0</v>
       </c>
       <c r="O45" s="4" t="n">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="P45" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q45" s="4" t="n">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="R45" s="4" t="n">
-        <v>393.33</v>
+        <v>20</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T45" s="7" t="inlineStr">
         <is>
@@ -24569,12 +24553,12 @@
       </c>
       <c r="U45" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 44.54€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V45" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 25/02/2025</t>
         </is>
       </c>
       <c r="W45" s="4" t="inlineStr">
@@ -24586,32 +24570,32 @@
     <row r="46">
       <c r="A46" s="3" t="inlineStr">
         <is>
-          <t>7206030001</t>
+          <t>7805070001</t>
         </is>
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>CYCLAMEN PERSICUM</t>
+          <t>ROSMARINUS OFFICINALIS PROSTRATUS</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr">
         <is>
-          <t>C18A20</t>
+          <t>10LA30</t>
         </is>
       </c>
       <c r="D46" s="3" t="inlineStr">
         <is>
-          <t>ROJO</t>
+          <t>UNICO</t>
         </is>
       </c>
       <c r="E46" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F46" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G46" s="4" t="n">
@@ -24630,7 +24614,7 @@
         <v>0</v>
       </c>
       <c r="L46" s="4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M46" s="5" t="n">
         <v>0</v>
@@ -24639,16 +24623,16 @@
         <v>0</v>
       </c>
       <c r="O46" s="4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P46" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q46" s="4" t="n">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="R46" s="4" t="n">
-        <v>253.33</v>
+        <v>393.33</v>
       </c>
       <c r="S46" s="5" t="n">
         <v>30</v>
@@ -24660,12 +24644,12 @@
       </c>
       <c r="U46" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.9€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V46" s="4" t="inlineStr">
         <is>
-          <t>Compra 21/01/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W46" s="4" t="inlineStr">
@@ -24677,17 +24661,17 @@
     <row r="47">
       <c r="A47" s="3" t="inlineStr">
         <is>
-          <t>7401340000</t>
+          <t>7803250001</t>
         </is>
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>GAURA LINDHEIMERI</t>
+          <t>ALOYSIA TRIPHYLLA HIERBALUISA</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr">
         <is>
-          <t>2I5LA25</t>
+          <t>M13A10</t>
         </is>
       </c>
       <c r="D47" s="3" t="inlineStr">
@@ -24697,12 +24681,12 @@
       </c>
       <c r="E47" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F47" s="4" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G47" s="4" t="n">
@@ -24721,7 +24705,7 @@
         <v>0</v>
       </c>
       <c r="L47" s="4" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="M47" s="5" t="n">
         <v>0</v>
@@ -24730,7 +24714,7 @@
         <v>0</v>
       </c>
       <c r="O47" s="4" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="P47" s="4" t="n">
         <v>59</v>
@@ -24751,7 +24735,7 @@
       </c>
       <c r="U47" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 32.26€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V47" s="4" t="inlineStr">
@@ -24768,17 +24752,17 @@
     <row r="48">
       <c r="A48" s="3" t="inlineStr">
         <is>
-          <t>7201420001</t>
+          <t>7904120007</t>
         </is>
       </c>
       <c r="B48" s="3" t="inlineStr">
         <is>
-          <t>TAGETES ERECTA</t>
+          <t>LECHUGA MARAVILLA</t>
         </is>
       </c>
       <c r="C48" s="3" t="inlineStr">
         <is>
-          <t>M105A20</t>
+          <t>PACK12</t>
         </is>
       </c>
       <c r="D48" s="3" t="inlineStr">
@@ -24788,12 +24772,12 @@
       </c>
       <c r="E48" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F48" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G48" s="4" t="n">
@@ -24812,7 +24796,7 @@
         <v>0</v>
       </c>
       <c r="L48" s="4" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="M48" s="5" t="n">
         <v>0</v>
@@ -24821,19 +24805,19 @@
         <v>0</v>
       </c>
       <c r="O48" s="4" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="P48" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q48" s="4" t="n">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="R48" s="4" t="n">
-        <v>20</v>
+        <v>393.33</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T48" s="7" t="inlineStr">
         <is>
@@ -24842,12 +24826,12 @@
       </c>
       <c r="U48" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 12.6€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V48" s="4" t="inlineStr">
         <is>
-          <t>Compra 25/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W48" s="4" t="inlineStr">
@@ -24859,17 +24843,17 @@
     <row r="49">
       <c r="A49" s="3" t="inlineStr">
         <is>
-          <t>7904120004</t>
+          <t>7703050001</t>
         </is>
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>LECHUGA ROMANA</t>
+          <t>PELARGONIUM X HORTORUM</t>
         </is>
       </c>
       <c r="C49" s="3" t="inlineStr">
         <is>
-          <t>PACK6</t>
+          <t>T25A20</t>
         </is>
       </c>
       <c r="D49" s="3" t="inlineStr">
@@ -24879,12 +24863,12 @@
       </c>
       <c r="E49" s="4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>77</t>
         </is>
       </c>
       <c r="F49" s="4" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>PELARGONIUM EN MACETA</t>
         </is>
       </c>
       <c r="G49" s="4" t="n">
@@ -24903,7 +24887,7 @@
         <v>0</v>
       </c>
       <c r="L49" s="4" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M49" s="5" t="n">
         <v>0</v>
@@ -24912,19 +24896,19 @@
         <v>0</v>
       </c>
       <c r="O49" s="4" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="P49" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q49" s="4" t="n">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="R49" s="4" t="n">
-        <v>393.33</v>
+        <v>66.67</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="T49" s="7" t="inlineStr">
         <is>
@@ -24933,12 +24917,12 @@
       </c>
       <c r="U49" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 18.06€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V49" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 18/02/2025</t>
         </is>
       </c>
       <c r="W49" s="4" t="inlineStr">
@@ -24950,17 +24934,17 @@
     <row r="50">
       <c r="A50" s="3" t="inlineStr">
         <is>
-          <t>7805110003</t>
+          <t>7104090001</t>
         </is>
       </c>
       <c r="B50" s="3" t="inlineStr">
         <is>
-          <t>SALVIA MYCROFOLIA</t>
+          <t>.</t>
         </is>
       </c>
       <c r="C50" s="3" t="inlineStr">
         <is>
-          <t>2I5LA45</t>
+          <t>PACK6</t>
         </is>
       </c>
       <c r="D50" s="3" t="inlineStr">
@@ -24970,12 +24954,12 @@
       </c>
       <c r="E50" s="4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>71</t>
         </is>
       </c>
       <c r="F50" s="4" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>PLANTAS PARA MACIZOS EN BDJA.</t>
         </is>
       </c>
       <c r="G50" s="4" t="n">
@@ -24994,7 +24978,7 @@
         <v>0</v>
       </c>
       <c r="L50" s="4" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="M50" s="5" t="n">
         <v>0</v>
@@ -25003,7 +24987,7 @@
         <v>0</v>
       </c>
       <c r="O50" s="4" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="P50" s="4" t="n">
         <v>59</v>
@@ -25024,7 +25008,7 @@
       </c>
       <c r="U50" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 6.16€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 23.27€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V50" s="4" t="inlineStr">
@@ -25041,17 +25025,17 @@
     <row r="51">
       <c r="A51" s="3" t="inlineStr">
         <is>
-          <t>7203280002</t>
+          <t>7202140002</t>
         </is>
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>LANTANA CAMARA COPA</t>
+          <t>SOLENOSTEMON HYBRIDA SCUTELLARIOIDES</t>
         </is>
       </c>
       <c r="C51" s="3" t="inlineStr">
         <is>
-          <t>C20A50</t>
+          <t>2I5LA30</t>
         </is>
       </c>
       <c r="D51" s="3" t="inlineStr">
@@ -25085,7 +25069,7 @@
         <v>0</v>
       </c>
       <c r="L51" s="4" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="M51" s="5" t="n">
         <v>0</v>
@@ -25094,7 +25078,7 @@
         <v>0</v>
       </c>
       <c r="O51" s="4" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="P51" s="4" t="n">
         <v>59</v>
@@ -25115,7 +25099,7 @@
       </c>
       <c r="U51" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 20.87€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 20.55€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V51" s="4" t="inlineStr">
@@ -25132,17 +25116,17 @@
     <row r="52">
       <c r="A52" s="3" t="inlineStr">
         <is>
-          <t>7401740024</t>
+          <t>7904120004</t>
         </is>
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>CAREX COMANS</t>
+          <t>LECHUGA ROMANA</t>
         </is>
       </c>
       <c r="C52" s="3" t="inlineStr">
         <is>
-          <t>2LA20</t>
+          <t>PACK6</t>
         </is>
       </c>
       <c r="D52" s="3" t="inlineStr">
@@ -25152,12 +25136,12 @@
       </c>
       <c r="E52" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F52" s="4" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G52" s="4" t="n">
@@ -25176,7 +25160,7 @@
         <v>0</v>
       </c>
       <c r="L52" s="4" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="M52" s="5" t="n">
         <v>0</v>
@@ -25185,7 +25169,7 @@
         <v>0</v>
       </c>
       <c r="O52" s="4" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="P52" s="4" t="n">
         <v>59</v>
@@ -25206,7 +25190,7 @@
       </c>
       <c r="U52" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.2€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 18.06€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V52" s="4" t="inlineStr">
@@ -25223,17 +25207,17 @@
     <row r="53">
       <c r="A53" s="3" t="inlineStr">
         <is>
-          <t>7202520004</t>
+          <t>7401250005</t>
         </is>
       </c>
       <c r="B53" s="3" t="inlineStr">
         <is>
-          <t>NARCISSUS TETE A TETE AMARILLO</t>
+          <t>DIANTHUS CARIOPHILUS MINI</t>
         </is>
       </c>
       <c r="C53" s="3" t="inlineStr">
         <is>
-          <t>M12A20</t>
+          <t>M105A15</t>
         </is>
       </c>
       <c r="D53" s="3" t="inlineStr">
@@ -25243,12 +25227,12 @@
       </c>
       <c r="E53" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F53" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G53" s="4" t="n">
@@ -25267,7 +25251,7 @@
         <v>0</v>
       </c>
       <c r="L53" s="4" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M53" s="5" t="n">
         <v>0</v>
@@ -25276,19 +25260,19 @@
         <v>0</v>
       </c>
       <c r="O53" s="4" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P53" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q53" s="4" t="n">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="R53" s="4" t="n">
-        <v>393.33</v>
+        <v>20</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T53" s="7" t="inlineStr">
         <is>
@@ -25297,12 +25281,12 @@
       </c>
       <c r="U53" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 20.79€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V53" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 25/02/2025</t>
         </is>
       </c>
       <c r="W53" s="4" t="inlineStr">
@@ -25314,17 +25298,17 @@
     <row r="54">
       <c r="A54" s="3" t="inlineStr">
         <is>
-          <t>7904120006</t>
+          <t>7203280001</t>
         </is>
       </c>
       <c r="B54" s="3" t="inlineStr">
         <is>
-          <t>LECHUGA COGOLLO</t>
+          <t>LANTANA CAMARA</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr">
         <is>
-          <t>PACK6</t>
+          <t>5LA30</t>
         </is>
       </c>
       <c r="D54" s="3" t="inlineStr">
@@ -25334,12 +25318,12 @@
       </c>
       <c r="E54" s="4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F54" s="4" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G54" s="4" t="n">
@@ -25358,7 +25342,7 @@
         <v>0</v>
       </c>
       <c r="L54" s="4" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="M54" s="5" t="n">
         <v>0</v>
@@ -25367,7 +25351,7 @@
         <v>0</v>
       </c>
       <c r="O54" s="4" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="P54" s="4" t="n">
         <v>59</v>
@@ -25388,7 +25372,7 @@
       </c>
       <c r="U54" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.54€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 47.43€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V54" s="4" t="inlineStr">
@@ -25405,17 +25389,17 @@
     <row r="55">
       <c r="A55" s="3" t="inlineStr">
         <is>
-          <t>7201050001</t>
+          <t>7401740043</t>
         </is>
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>BEGONIA SEMPERFLORENS</t>
+          <t>CONVOLVULUS CNEORUM</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
         <is>
-          <t>M105A10</t>
+          <t>2LA30</t>
         </is>
       </c>
       <c r="D55" s="3" t="inlineStr">
@@ -25425,12 +25409,12 @@
       </c>
       <c r="E55" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F55" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G55" s="4" t="n">
@@ -25449,7 +25433,7 @@
         <v>0</v>
       </c>
       <c r="L55" s="4" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="M55" s="5" t="n">
         <v>0</v>
@@ -25458,19 +25442,19 @@
         <v>0</v>
       </c>
       <c r="O55" s="4" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="P55" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q55" s="4" t="n">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="R55" s="4" t="n">
-        <v>20</v>
+        <v>393.33</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T55" s="7" t="inlineStr">
         <is>
@@ -25479,12 +25463,12 @@
       </c>
       <c r="U55" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 29.99€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V55" s="4" t="inlineStr">
         <is>
-          <t>Compra 25/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W55" s="4" t="inlineStr">
@@ -25496,17 +25480,17 @@
     <row r="56">
       <c r="A56" s="3" t="inlineStr">
         <is>
-          <t>7201530011</t>
+          <t>7401250010</t>
         </is>
       </c>
       <c r="B56" s="3" t="inlineStr">
         <is>
-          <t>FREESIA HYBRIDA</t>
+          <t>DIANTHUS CARYOPHYLLUS</t>
         </is>
       </c>
       <c r="C56" s="3" t="inlineStr">
         <is>
-          <t>M13A25</t>
+          <t>T22A30</t>
         </is>
       </c>
       <c r="D56" s="3" t="inlineStr">
@@ -25516,12 +25500,12 @@
       </c>
       <c r="E56" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F56" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G56" s="4" t="n">
@@ -25540,7 +25524,7 @@
         <v>0</v>
       </c>
       <c r="L56" s="4" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="M56" s="5" t="n">
         <v>0</v>
@@ -25549,19 +25533,19 @@
         <v>0</v>
       </c>
       <c r="O56" s="4" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="P56" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q56" s="4" t="n">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="R56" s="4" t="n">
-        <v>20</v>
+        <v>206.67</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T56" s="7" t="inlineStr">
         <is>
@@ -25570,12 +25554,12 @@
       </c>
       <c r="U56" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V56" s="4" t="inlineStr">
         <is>
-          <t>Compra 25/02/2025</t>
+          <t>Compra 28/01/2025</t>
         </is>
       </c>
       <c r="W56" s="4" t="inlineStr">
@@ -25587,17 +25571,17 @@
     <row r="57">
       <c r="A57" s="3" t="inlineStr">
         <is>
-          <t>7401740040</t>
+          <t>7203230000</t>
         </is>
       </c>
       <c r="B57" s="3" t="inlineStr">
         <is>
-          <t>TECOMARIA CAPENSIS</t>
+          <t>GERBERA JAMESONII</t>
         </is>
       </c>
       <c r="C57" s="3" t="inlineStr">
         <is>
-          <t>2I5LA30</t>
+          <t>1I6LA20</t>
         </is>
       </c>
       <c r="D57" s="3" t="inlineStr">
@@ -25607,12 +25591,12 @@
       </c>
       <c r="E57" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F57" s="4" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G57" s="4" t="n">
@@ -25631,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="L57" s="4" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="M57" s="5" t="n">
         <v>0</v>
@@ -25640,19 +25624,19 @@
         <v>0</v>
       </c>
       <c r="O57" s="4" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="P57" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q57" s="4" t="n">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="R57" s="4" t="n">
-        <v>393.33</v>
+        <v>20</v>
       </c>
       <c r="S57" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T57" s="7" t="inlineStr">
         <is>
@@ -25661,12 +25645,12 @@
       </c>
       <c r="U57" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 13.41€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V57" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 25/02/2025</t>
         </is>
       </c>
       <c r="W57" s="4" t="inlineStr">
@@ -25678,17 +25662,17 @@
     <row r="58">
       <c r="A58" s="3" t="inlineStr">
         <is>
-          <t>7904120008</t>
+          <t>7401740005</t>
         </is>
       </c>
       <c r="B58" s="3" t="inlineStr">
         <is>
-          <t>LECHUGA TROCADERO</t>
+          <t>LAMPRANTHUS AURANTIACUS MESEM</t>
         </is>
       </c>
       <c r="C58" s="3" t="inlineStr">
         <is>
-          <t>PACK12</t>
+          <t>M105A15</t>
         </is>
       </c>
       <c r="D58" s="3" t="inlineStr">
@@ -25698,12 +25682,12 @@
       </c>
       <c r="E58" s="4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F58" s="4" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G58" s="4" t="n">
@@ -25722,7 +25706,7 @@
         <v>0</v>
       </c>
       <c r="L58" s="4" t="n">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="M58" s="5" t="n">
         <v>0</v>
@@ -25731,19 +25715,19 @@
         <v>0</v>
       </c>
       <c r="O58" s="4" t="n">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="P58" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q58" s="4" t="n">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="R58" s="4" t="n">
-        <v>100</v>
+        <v>393.33</v>
       </c>
       <c r="S58" s="5" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="T58" s="7" t="inlineStr">
         <is>
@@ -25752,12 +25736,12 @@
       </c>
       <c r="U58" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 43.68€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V58" s="4" t="inlineStr">
         <is>
-          <t>Compra 13/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W58" s="4" t="inlineStr">
@@ -25769,17 +25753,17 @@
     <row r="59">
       <c r="A59" s="3" t="inlineStr">
         <is>
-          <t>7206020004</t>
+          <t>7202290001</t>
         </is>
       </c>
       <c r="B59" s="3" t="inlineStr">
         <is>
-          <t>CHRYSANTHEMUN IND CARNAVAL</t>
+          <t>LOBELIA ERINUS TRICOLOR</t>
         </is>
       </c>
       <c r="C59" s="3" t="inlineStr">
         <is>
-          <t>C23A30</t>
+          <t>3I6LCOLG</t>
         </is>
       </c>
       <c r="D59" s="3" t="inlineStr">
@@ -25813,7 +25797,7 @@
         <v>0</v>
       </c>
       <c r="L59" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M59" s="5" t="n">
         <v>0</v>
@@ -25822,19 +25806,19 @@
         <v>0</v>
       </c>
       <c r="O59" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P59" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q59" s="4" t="n">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="R59" s="4" t="n">
-        <v>393.33</v>
+        <v>20</v>
       </c>
       <c r="S59" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T59" s="7" t="inlineStr">
         <is>
@@ -25843,12 +25827,12 @@
       </c>
       <c r="U59" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 2.6€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V59" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 25/02/2025</t>
         </is>
       </c>
       <c r="W59" s="4" t="inlineStr">
@@ -25860,17 +25844,17 @@
     <row r="60">
       <c r="A60" s="3" t="inlineStr">
         <is>
-          <t>7703050001</t>
+          <t>7401250005</t>
         </is>
       </c>
       <c r="B60" s="3" t="inlineStr">
         <is>
-          <t>PELARGONIUM X HORTORUM</t>
+          <t>DIANTHUS CARIOPHILUS MINI</t>
         </is>
       </c>
       <c r="C60" s="3" t="inlineStr">
         <is>
-          <t>T25A20</t>
+          <t>C17A25</t>
         </is>
       </c>
       <c r="D60" s="3" t="inlineStr">
@@ -25880,12 +25864,12 @@
       </c>
       <c r="E60" s="4" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F60" s="4" t="inlineStr">
         <is>
-          <t>PELARGONIUM EN MACETA</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G60" s="4" t="n">
@@ -25904,7 +25888,7 @@
         <v>0</v>
       </c>
       <c r="L60" s="4" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="M60" s="5" t="n">
         <v>0</v>
@@ -25913,19 +25897,19 @@
         <v>0</v>
       </c>
       <c r="O60" s="4" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="P60" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q60" s="4" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="R60" s="4" t="n">
-        <v>66.67</v>
+        <v>20</v>
       </c>
       <c r="S60" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T60" s="7" t="inlineStr">
         <is>
@@ -25934,12 +25918,12 @@
       </c>
       <c r="U60" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V60" s="4" t="inlineStr">
         <is>
-          <t>Compra 18/02/2025</t>
+          <t>Compra 25/02/2025</t>
         </is>
       </c>
       <c r="W60" s="4" t="inlineStr">
@@ -25951,17 +25935,17 @@
     <row r="61">
       <c r="A61" s="3" t="inlineStr">
         <is>
-          <t>7805110001</t>
+          <t>7804160003</t>
         </is>
       </c>
       <c r="B61" s="3" t="inlineStr">
         <is>
-          <t>SALVIA FARINACEA</t>
+          <t>MENTHA SUAVEOLENS</t>
         </is>
       </c>
       <c r="C61" s="3" t="inlineStr">
         <is>
-          <t>2I5LA40</t>
+          <t>5LA40</t>
         </is>
       </c>
       <c r="D61" s="3" t="inlineStr">
@@ -25995,7 +25979,7 @@
         <v>0</v>
       </c>
       <c r="L61" s="4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M61" s="5" t="n">
         <v>0</v>
@@ -26004,7 +25988,7 @@
         <v>0</v>
       </c>
       <c r="O61" s="4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P61" s="4" t="n">
         <v>59</v>
@@ -26025,7 +26009,7 @@
       </c>
       <c r="U61" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 11.94€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 7.22€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V61" s="4" t="inlineStr">
@@ -26042,24 +26026,32 @@
     <row r="62">
       <c r="A62" s="3" t="inlineStr">
         <is>
-          <t>7201530002</t>
+          <t>7401740038</t>
         </is>
       </c>
       <c r="B62" s="3" t="inlineStr">
         <is>
-          <t>CAPSICUM ANNUUM VAR. ANNUUM</t>
-        </is>
-      </c>
-      <c r="C62" s="3" t="inlineStr"/>
-      <c r="D62" s="3" t="inlineStr"/>
+          <t>STACHYS BYZANTINA</t>
+        </is>
+      </c>
+      <c r="C62" s="3" t="inlineStr">
+        <is>
+          <t>2I5LA30</t>
+        </is>
+      </c>
+      <c r="D62" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E62" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F62" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G62" s="4" t="n">
@@ -26078,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="L62" s="4" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="M62" s="5" t="n">
         <v>0</v>
@@ -26087,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="O62" s="4" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="P62" s="4" t="n">
         <v>59</v>
@@ -26108,7 +26100,7 @@
       </c>
       <c r="U62" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.76€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 40.1€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V62" s="4" t="inlineStr">
@@ -26125,17 +26117,17 @@
     <row r="63">
       <c r="A63" s="3" t="inlineStr">
         <is>
-          <t>7905040015</t>
+          <t>7201350001</t>
         </is>
       </c>
       <c r="B63" s="3" t="inlineStr">
         <is>
-          <t>PIMIENTO PICANTE THAI</t>
+          <t>TAGETES PATULA</t>
         </is>
       </c>
       <c r="C63" s="3" t="inlineStr">
         <is>
-          <t>M105A20</t>
+          <t>M105A10</t>
         </is>
       </c>
       <c r="D63" s="3" t="inlineStr">
@@ -26145,12 +26137,12 @@
       </c>
       <c r="E63" s="4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F63" s="4" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G63" s="4" t="n">
@@ -26216,12 +26208,12 @@
     <row r="64">
       <c r="A64" s="3" t="inlineStr">
         <is>
-          <t>7202140002</t>
+          <t>7401740040</t>
         </is>
       </c>
       <c r="B64" s="3" t="inlineStr">
         <is>
-          <t>SOLENOSTEMON HYBRIDA SCUTELLARIOIDES</t>
+          <t>TECOMARIA CAPENSIS</t>
         </is>
       </c>
       <c r="C64" s="3" t="inlineStr">
@@ -26236,12 +26228,12 @@
       </c>
       <c r="E64" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F64" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G64" s="4" t="n">
@@ -26260,7 +26252,7 @@
         <v>0</v>
       </c>
       <c r="L64" s="4" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M64" s="5" t="n">
         <v>0</v>
@@ -26269,7 +26261,7 @@
         <v>0</v>
       </c>
       <c r="O64" s="4" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="P64" s="4" t="n">
         <v>59</v>
@@ -26290,7 +26282,7 @@
       </c>
       <c r="U64" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 20.55€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 13.41€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V64" s="4" t="inlineStr">
@@ -26307,16 +26299,24 @@
     <row r="65">
       <c r="A65" s="3" t="inlineStr">
         <is>
-          <t>7201530004</t>
+          <t>7201050001</t>
         </is>
       </c>
       <c r="B65" s="3" t="inlineStr">
         <is>
-          <t>CATHARANTHUS ROSEUS</t>
-        </is>
-      </c>
-      <c r="C65" s="3" t="inlineStr"/>
-      <c r="D65" s="3" t="inlineStr"/>
+          <t>BEGONIA SEMPERFLORENS</t>
+        </is>
+      </c>
+      <c r="C65" s="3" t="inlineStr">
+        <is>
+          <t>M105A10</t>
+        </is>
+      </c>
+      <c r="D65" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E65" s="4" t="inlineStr">
         <is>
           <t>72</t>
@@ -26343,7 +26343,7 @@
         <v>0</v>
       </c>
       <c r="L65" s="4" t="n">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="M65" s="5" t="n">
         <v>0</v>
@@ -26352,19 +26352,19 @@
         <v>0</v>
       </c>
       <c r="O65" s="4" t="n">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="P65" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q65" s="4" t="n">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="R65" s="4" t="n">
-        <v>393.33</v>
+        <v>20</v>
       </c>
       <c r="S65" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T65" s="7" t="inlineStr">
         <is>
@@ -26373,12 +26373,12 @@
       </c>
       <c r="U65" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.78€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V65" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 25/02/2025</t>
         </is>
       </c>
       <c r="W65" s="4" t="inlineStr">
@@ -26390,12 +26390,12 @@
     <row r="66">
       <c r="A66" s="3" t="inlineStr">
         <is>
-          <t>7201480001</t>
+          <t>7201530004</t>
         </is>
       </c>
       <c r="B66" s="3" t="inlineStr">
         <is>
-          <t>CALENDULA OFFICINALIS</t>
+          <t>CATHARANTHUS ROSEUS</t>
         </is>
       </c>
       <c r="C66" s="3" t="inlineStr"/>
@@ -26456,7 +26456,7 @@
       </c>
       <c r="U66" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.57€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.78€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V66" s="4" t="inlineStr">
@@ -26473,32 +26473,24 @@
     <row r="67">
       <c r="A67" s="3" t="inlineStr">
         <is>
-          <t>7905120004</t>
+          <t>7201420001</t>
         </is>
       </c>
       <c r="B67" s="3" t="inlineStr">
         <is>
-          <t>TOMATE RAF</t>
-        </is>
-      </c>
-      <c r="C67" s="3" t="inlineStr">
-        <is>
-          <t>M105A20</t>
-        </is>
-      </c>
-      <c r="D67" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>TAGETES ERECTA</t>
+        </is>
+      </c>
+      <c r="C67" s="3" t="inlineStr"/>
+      <c r="D67" s="3" t="inlineStr"/>
       <c r="E67" s="4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F67" s="4" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G67" s="4" t="n">
@@ -26517,7 +26509,7 @@
         <v>0</v>
       </c>
       <c r="L67" s="4" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="M67" s="5" t="n">
         <v>0</v>
@@ -26526,19 +26518,19 @@
         <v>0</v>
       </c>
       <c r="O67" s="4" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="P67" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q67" s="4" t="n">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="R67" s="4" t="n">
-        <v>20</v>
+        <v>393.33</v>
       </c>
       <c r="S67" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T67" s="7" t="inlineStr">
         <is>
@@ -26547,12 +26539,12 @@
       </c>
       <c r="U67" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.7€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V67" s="4" t="inlineStr">
         <is>
-          <t>Compra 25/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W67" s="4" t="inlineStr">
@@ -26564,17 +26556,17 @@
     <row r="68">
       <c r="A68" s="3" t="inlineStr">
         <is>
-          <t>7203230000</t>
+          <t>7901010001</t>
         </is>
       </c>
       <c r="B68" s="3" t="inlineStr">
         <is>
-          <t>GERBERA JAMESONII</t>
+          <t>FRAGARIA ANANASSA</t>
         </is>
       </c>
       <c r="C68" s="3" t="inlineStr">
         <is>
-          <t>1I6LA20</t>
+          <t>C25COLG</t>
         </is>
       </c>
       <c r="D68" s="3" t="inlineStr">
@@ -26584,12 +26576,12 @@
       </c>
       <c r="E68" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F68" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G68" s="4" t="n">
@@ -26608,7 +26600,7 @@
         <v>0</v>
       </c>
       <c r="L68" s="4" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="M68" s="5" t="n">
         <v>0</v>
@@ -26617,19 +26609,19 @@
         <v>0</v>
       </c>
       <c r="O68" s="4" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="P68" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q68" s="4" t="n">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="R68" s="4" t="n">
-        <v>20</v>
+        <v>393.33</v>
       </c>
       <c r="S68" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T68" s="7" t="inlineStr">
         <is>
@@ -26638,12 +26630,12 @@
       </c>
       <c r="U68" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V68" s="4" t="inlineStr">
         <is>
-          <t>Compra 25/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W68" s="4" t="inlineStr">
@@ -26655,17 +26647,17 @@
     <row r="69">
       <c r="A69" s="3" t="inlineStr">
         <is>
-          <t>7401740035</t>
+          <t>7905040015</t>
         </is>
       </c>
       <c r="B69" s="3" t="inlineStr">
         <is>
-          <t>ANGELONIA ANGUSTIFOLIA</t>
+          <t>PIMIENTO PICANTE THAI</t>
         </is>
       </c>
       <c r="C69" s="3" t="inlineStr">
         <is>
-          <t>2I5LA40</t>
+          <t>M105A20</t>
         </is>
       </c>
       <c r="D69" s="3" t="inlineStr">
@@ -26675,12 +26667,12 @@
       </c>
       <c r="E69" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F69" s="4" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G69" s="4" t="n">
@@ -26699,7 +26691,7 @@
         <v>0</v>
       </c>
       <c r="L69" s="4" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="M69" s="5" t="n">
         <v>0</v>
@@ -26708,19 +26700,19 @@
         <v>0</v>
       </c>
       <c r="O69" s="4" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="P69" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q69" s="4" t="n">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="R69" s="4" t="n">
-        <v>393.33</v>
+        <v>20</v>
       </c>
       <c r="S69" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T69" s="7" t="inlineStr">
         <is>
@@ -26729,12 +26721,12 @@
       </c>
       <c r="U69" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 19.82€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V69" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 25/02/2025</t>
         </is>
       </c>
       <c r="W69" s="4" t="inlineStr">
@@ -26746,17 +26738,17 @@
     <row r="70">
       <c r="A70" s="3" t="inlineStr">
         <is>
-          <t>7804090001</t>
+          <t>7803160006</t>
         </is>
       </c>
       <c r="B70" s="3" t="inlineStr">
         <is>
-          <t>ALLIUM SCHOENOPRASUM</t>
+          <t>MENTHA SPICATA</t>
         </is>
       </c>
       <c r="C70" s="3" t="inlineStr">
         <is>
-          <t>M13A15</t>
+          <t>M13A25</t>
         </is>
       </c>
       <c r="D70" s="3" t="inlineStr">
@@ -26790,7 +26782,7 @@
         <v>0</v>
       </c>
       <c r="L70" s="4" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="M70" s="5" t="n">
         <v>0</v>
@@ -26799,16 +26791,16 @@
         <v>0</v>
       </c>
       <c r="O70" s="4" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="P70" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q70" s="4" t="n">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="R70" s="4" t="n">
-        <v>393.33</v>
+        <v>153.33</v>
       </c>
       <c r="S70" s="5" t="n">
         <v>30</v>
@@ -26820,12 +26812,12 @@
       </c>
       <c r="U70" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.05€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V70" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 05/02/2025</t>
         </is>
       </c>
       <c r="W70" s="4" t="inlineStr">
@@ -26837,17 +26829,17 @@
     <row r="71">
       <c r="A71" s="3" t="inlineStr">
         <is>
-          <t>7803250001</t>
+          <t>7203280001</t>
         </is>
       </c>
       <c r="B71" s="3" t="inlineStr">
         <is>
-          <t>ALOYSIA TRIPHYLLA HIERBALUISA</t>
+          <t>LANTANA CAMARA</t>
         </is>
       </c>
       <c r="C71" s="3" t="inlineStr">
         <is>
-          <t>M13A10</t>
+          <t>1I6LA30</t>
         </is>
       </c>
       <c r="D71" s="3" t="inlineStr">
@@ -26857,12 +26849,12 @@
       </c>
       <c r="E71" s="4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F71" s="4" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G71" s="4" t="n">
@@ -26881,7 +26873,7 @@
         <v>0</v>
       </c>
       <c r="L71" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M71" s="5" t="n">
         <v>0</v>
@@ -26890,7 +26882,7 @@
         <v>0</v>
       </c>
       <c r="O71" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P71" s="4" t="n">
         <v>59</v>
@@ -26911,7 +26903,7 @@
       </c>
       <c r="U71" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.88€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V71" s="4" t="inlineStr">
@@ -26928,22 +26920,22 @@
     <row r="72">
       <c r="A72" s="3" t="inlineStr">
         <is>
-          <t>7203280001</t>
+          <t>7206030001</t>
         </is>
       </c>
       <c r="B72" s="3" t="inlineStr">
         <is>
-          <t>LANTANA CAMARA</t>
+          <t>CYCLAMEN PERSICUM</t>
         </is>
       </c>
       <c r="C72" s="3" t="inlineStr">
         <is>
-          <t>1I6LA30</t>
+          <t>C18A20</t>
         </is>
       </c>
       <c r="D72" s="3" t="inlineStr">
         <is>
-          <t>UNICO</t>
+          <t>ROJO</t>
         </is>
       </c>
       <c r="E72" s="4" t="inlineStr">
@@ -26972,7 +26964,7 @@
         <v>0</v>
       </c>
       <c r="L72" s="4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M72" s="5" t="n">
         <v>0</v>
@@ -26981,16 +26973,16 @@
         <v>0</v>
       </c>
       <c r="O72" s="4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P72" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q72" s="4" t="n">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="R72" s="4" t="n">
-        <v>393.33</v>
+        <v>253.33</v>
       </c>
       <c r="S72" s="5" t="n">
         <v>30</v>
@@ -27002,12 +26994,12 @@
       </c>
       <c r="U72" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.88€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V72" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 21/01/2025</t>
         </is>
       </c>
       <c r="W72" s="4" t="inlineStr">
@@ -27019,24 +27011,32 @@
     <row r="73">
       <c r="A73" s="3" t="inlineStr">
         <is>
-          <t>7201530003</t>
+          <t>7501010003</t>
         </is>
       </c>
       <c r="B73" s="3" t="inlineStr">
         <is>
-          <t>CAPSICUM MIX M10</t>
-        </is>
-      </c>
-      <c r="C73" s="3" t="inlineStr"/>
-      <c r="D73" s="3" t="inlineStr"/>
+          <t>CALLUNA VULGARIS</t>
+        </is>
+      </c>
+      <c r="C73" s="3" t="inlineStr">
+        <is>
+          <t>M105A10</t>
+        </is>
+      </c>
+      <c r="D73" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E73" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>75</t>
         </is>
       </c>
       <c r="F73" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>PLANTAS TRADICIONALES</t>
         </is>
       </c>
       <c r="G73" s="4" t="n">
@@ -27055,7 +27055,7 @@
         <v>0</v>
       </c>
       <c r="L73" s="4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M73" s="5" t="n">
         <v>0</v>
@@ -27064,7 +27064,7 @@
         <v>0</v>
       </c>
       <c r="O73" s="4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P73" s="4" t="n">
         <v>59</v>
@@ -27085,7 +27085,7 @@
       </c>
       <c r="U73" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 8.02€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 5.63€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V73" s="4" t="inlineStr">
@@ -27102,17 +27102,17 @@
     <row r="74">
       <c r="A74" s="3" t="inlineStr">
         <is>
-          <t>7805070001</t>
+          <t>7401070000</t>
         </is>
       </c>
       <c r="B74" s="3" t="inlineStr">
         <is>
-          <t>ROSMARINUS OFFICINALIS PROSTRATUS</t>
+          <t>AQUILEGIA CAERULEA</t>
         </is>
       </c>
       <c r="C74" s="3" t="inlineStr">
         <is>
-          <t>10LA30</t>
+          <t>1I6LA20</t>
         </is>
       </c>
       <c r="D74" s="3" t="inlineStr">
@@ -27122,12 +27122,12 @@
       </c>
       <c r="E74" s="4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F74" s="4" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G74" s="4" t="n">
@@ -27146,7 +27146,7 @@
         <v>0</v>
       </c>
       <c r="L74" s="4" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="M74" s="5" t="n">
         <v>0</v>
@@ -27155,19 +27155,19 @@
         <v>0</v>
       </c>
       <c r="O74" s="4" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="P74" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q74" s="4" t="n">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="R74" s="4" t="n">
-        <v>393.33</v>
+        <v>20</v>
       </c>
       <c r="S74" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T74" s="7" t="inlineStr">
         <is>
@@ -27176,12 +27176,12 @@
       </c>
       <c r="U74" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.9€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V74" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 25/02/2025</t>
         </is>
       </c>
       <c r="W74" s="4" t="inlineStr">
@@ -27193,17 +27193,17 @@
     <row r="75">
       <c r="A75" s="3" t="inlineStr">
         <is>
-          <t>7401250010</t>
+          <t>7804090001</t>
         </is>
       </c>
       <c r="B75" s="3" t="inlineStr">
         <is>
-          <t>DIANTHUS CARYOPHYLLUS</t>
+          <t>ALLIUM SCHOENOPRASUM</t>
         </is>
       </c>
       <c r="C75" s="3" t="inlineStr">
         <is>
-          <t>T22A30</t>
+          <t>M13A15</t>
         </is>
       </c>
       <c r="D75" s="3" t="inlineStr">
@@ -27213,12 +27213,12 @@
       </c>
       <c r="E75" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F75" s="4" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G75" s="4" t="n">
@@ -27237,7 +27237,7 @@
         <v>0</v>
       </c>
       <c r="L75" s="4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M75" s="5" t="n">
         <v>0</v>
@@ -27246,16 +27246,16 @@
         <v>0</v>
       </c>
       <c r="O75" s="4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P75" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q75" s="4" t="n">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="R75" s="4" t="n">
-        <v>206.67</v>
+        <v>393.33</v>
       </c>
       <c r="S75" s="5" t="n">
         <v>30</v>
@@ -27267,12 +27267,12 @@
       </c>
       <c r="U75" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.05€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V75" s="4" t="inlineStr">
         <is>
-          <t>Compra 28/01/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W75" s="4" t="inlineStr">
@@ -27284,17 +27284,17 @@
     <row r="76">
       <c r="A76" s="3" t="inlineStr">
         <is>
-          <t>7401740044</t>
+          <t>7905120004</t>
         </is>
       </c>
       <c r="B76" s="3" t="inlineStr">
         <is>
-          <t>DURANTA REPENS</t>
+          <t>TOMATE RAF</t>
         </is>
       </c>
       <c r="C76" s="3" t="inlineStr">
         <is>
-          <t>2I5LA35</t>
+          <t>M105A20</t>
         </is>
       </c>
       <c r="D76" s="3" t="inlineStr">
@@ -27304,12 +27304,12 @@
       </c>
       <c r="E76" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F76" s="4" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G76" s="4" t="n">
@@ -27328,7 +27328,7 @@
         <v>0</v>
       </c>
       <c r="L76" s="4" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="M76" s="5" t="n">
         <v>0</v>
@@ -27337,19 +27337,19 @@
         <v>0</v>
       </c>
       <c r="O76" s="4" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="P76" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q76" s="4" t="n">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="R76" s="4" t="n">
-        <v>393.33</v>
+        <v>20</v>
       </c>
       <c r="S76" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T76" s="7" t="inlineStr">
         <is>
@@ -27358,12 +27358,12 @@
       </c>
       <c r="U76" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 23.44€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V76" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 25/02/2025</t>
         </is>
       </c>
       <c r="W76" s="4" t="inlineStr">
@@ -27375,17 +27375,17 @@
     <row r="77">
       <c r="A77" s="3" t="inlineStr">
         <is>
-          <t>7804230002</t>
+          <t>7201420001</t>
         </is>
       </c>
       <c r="B77" s="3" t="inlineStr">
         <is>
-          <t>THYMUS X CITRIODORUS AUREOVARIEGATA</t>
+          <t>TAGETES ERECTA</t>
         </is>
       </c>
       <c r="C77" s="3" t="inlineStr">
         <is>
-          <t>5LA25</t>
+          <t>M105A20</t>
         </is>
       </c>
       <c r="D77" s="3" t="inlineStr">
@@ -27395,12 +27395,12 @@
       </c>
       <c r="E77" s="4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F77" s="4" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G77" s="4" t="n">
@@ -27419,7 +27419,7 @@
         <v>0</v>
       </c>
       <c r="L77" s="4" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="M77" s="5" t="n">
         <v>0</v>
@@ -27428,19 +27428,19 @@
         <v>0</v>
       </c>
       <c r="O77" s="4" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="P77" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q77" s="4" t="n">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="R77" s="4" t="n">
-        <v>393.33</v>
+        <v>20</v>
       </c>
       <c r="S77" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T77" s="7" t="inlineStr">
         <is>
@@ -27449,12 +27449,12 @@
       </c>
       <c r="U77" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 79.46€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V77" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 25/02/2025</t>
         </is>
       </c>
       <c r="W77" s="4" t="inlineStr">
@@ -27466,17 +27466,17 @@
     <row r="78">
       <c r="A78" s="3" t="inlineStr">
         <is>
-          <t>7501010003</t>
+          <t>7203280001</t>
         </is>
       </c>
       <c r="B78" s="3" t="inlineStr">
         <is>
-          <t>CALLUNA VULGARIS</t>
+          <t>LANTANA CAMARA</t>
         </is>
       </c>
       <c r="C78" s="3" t="inlineStr">
         <is>
-          <t>M13A10</t>
+          <t>2I5LA25</t>
         </is>
       </c>
       <c r="D78" s="3" t="inlineStr">
@@ -27486,12 +27486,12 @@
       </c>
       <c r="E78" s="4" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F78" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS TRADICIONALES</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G78" s="4" t="n">
@@ -27510,7 +27510,7 @@
         <v>0</v>
       </c>
       <c r="L78" s="4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M78" s="5" t="n">
         <v>0</v>
@@ -27519,7 +27519,7 @@
         <v>0</v>
       </c>
       <c r="O78" s="4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P78" s="4" t="n">
         <v>59</v>
@@ -27540,7 +27540,7 @@
       </c>
       <c r="U78" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 8.89€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.16€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V78" s="4" t="inlineStr">
@@ -27557,17 +27557,17 @@
     <row r="79">
       <c r="A79" s="3" t="inlineStr">
         <is>
-          <t>7401740039</t>
+          <t>7401740044</t>
         </is>
       </c>
       <c r="B79" s="3" t="inlineStr">
         <is>
-          <t>PHYLICA ERICOIDES</t>
+          <t>DURANTA REPENS</t>
         </is>
       </c>
       <c r="C79" s="3" t="inlineStr">
         <is>
-          <t>2I5LA30</t>
+          <t>2I5LA35</t>
         </is>
       </c>
       <c r="D79" s="3" t="inlineStr">
@@ -27631,7 +27631,7 @@
       </c>
       <c r="U79" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 21.08€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 23.44€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V79" s="4" t="inlineStr">
@@ -27648,17 +27648,17 @@
     <row r="80">
       <c r="A80" s="3" t="inlineStr">
         <is>
-          <t>7206020003</t>
+          <t>7905040009</t>
         </is>
       </c>
       <c r="B80" s="3" t="inlineStr">
         <is>
-          <t>CHRYSANTHEMUN PALODOSUM</t>
+          <t>PIMIENTO PICANTE GUINDILLA VASCA</t>
         </is>
       </c>
       <c r="C80" s="3" t="inlineStr">
         <is>
-          <t>M13A20</t>
+          <t>M105A10</t>
         </is>
       </c>
       <c r="D80" s="3" t="inlineStr">
@@ -27668,12 +27668,12 @@
       </c>
       <c r="E80" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F80" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G80" s="4" t="n">
@@ -27692,7 +27692,7 @@
         <v>0</v>
       </c>
       <c r="L80" s="4" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="M80" s="5" t="n">
         <v>0</v>
@@ -27701,19 +27701,19 @@
         <v>0</v>
       </c>
       <c r="O80" s="4" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="P80" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q80" s="4" t="n">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="R80" s="4" t="n">
-        <v>393.33</v>
+        <v>20</v>
       </c>
       <c r="S80" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T80" s="7" t="inlineStr">
         <is>
@@ -27722,12 +27722,12 @@
       </c>
       <c r="U80" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.78€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V80" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 25/02/2025</t>
         </is>
       </c>
       <c r="W80" s="4" t="inlineStr">
@@ -27739,32 +27739,32 @@
     <row r="81">
       <c r="A81" s="3" t="inlineStr">
         <is>
-          <t>7503010004</t>
+          <t>7202520009</t>
         </is>
       </c>
       <c r="B81" s="3" t="inlineStr">
         <is>
-          <t>CHRYSANTHEMUN POMPON</t>
+          <t>SOLANUM PSEUDOCAPSICUM</t>
         </is>
       </c>
       <c r="C81" s="3" t="inlineStr">
         <is>
-          <t>T23A30</t>
+          <t>M13A25</t>
         </is>
       </c>
       <c r="D81" s="3" t="inlineStr">
         <is>
-          <t>BLANCO</t>
+          <t>UNICO</t>
         </is>
       </c>
       <c r="E81" s="4" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F81" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS TRADICIONALES</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G81" s="4" t="n">
@@ -27783,7 +27783,7 @@
         <v>0</v>
       </c>
       <c r="L81" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M81" s="5" t="n">
         <v>0</v>
@@ -27792,7 +27792,7 @@
         <v>0</v>
       </c>
       <c r="O81" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P81" s="4" t="n">
         <v>59</v>
@@ -27813,7 +27813,7 @@
       </c>
       <c r="U81" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 11.02€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.31€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V81" s="4" t="inlineStr">
@@ -27830,17 +27830,17 @@
     <row r="82">
       <c r="A82" s="3" t="inlineStr">
         <is>
-          <t>7901010005</t>
+          <t>7401740039</t>
         </is>
       </c>
       <c r="B82" s="3" t="inlineStr">
         <is>
-          <t>FRESA SAN ANDREAS</t>
+          <t>PHYLICA ERICOIDES</t>
         </is>
       </c>
       <c r="C82" s="3" t="inlineStr">
         <is>
-          <t>M105A10</t>
+          <t>2I5LA30</t>
         </is>
       </c>
       <c r="D82" s="3" t="inlineStr">
@@ -27850,12 +27850,12 @@
       </c>
       <c r="E82" s="4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F82" s="4" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G82" s="4" t="n">
@@ -27874,7 +27874,7 @@
         <v>0</v>
       </c>
       <c r="L82" s="4" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="M82" s="5" t="n">
         <v>0</v>
@@ -27883,19 +27883,19 @@
         <v>0</v>
       </c>
       <c r="O82" s="4" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="P82" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q82" s="4" t="n">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="R82" s="4" t="n">
-        <v>20</v>
+        <v>393.33</v>
       </c>
       <c r="S82" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T82" s="7" t="inlineStr">
         <is>
@@ -27904,12 +27904,12 @@
       </c>
       <c r="U82" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 21.08€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V82" s="4" t="inlineStr">
         <is>
-          <t>Compra 25/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W82" s="4" t="inlineStr">
@@ -27921,17 +27921,17 @@
     <row r="83">
       <c r="A83" s="3" t="inlineStr">
         <is>
-          <t>7401740020</t>
+          <t>7804200001</t>
         </is>
       </c>
       <c r="B83" s="3" t="inlineStr">
         <is>
-          <t>CAREX OSHIMENSIS</t>
+          <t>ROSMARINUS OFFICINALIS</t>
         </is>
       </c>
       <c r="C83" s="3" t="inlineStr">
         <is>
-          <t>2LA25</t>
+          <t>5LA30</t>
         </is>
       </c>
       <c r="D83" s="3" t="inlineStr">
@@ -27941,12 +27941,12 @@
       </c>
       <c r="E83" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F83" s="4" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G83" s="4" t="n">
@@ -27965,7 +27965,7 @@
         <v>0</v>
       </c>
       <c r="L83" s="4" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="M83" s="5" t="n">
         <v>0</v>
@@ -27974,19 +27974,19 @@
         <v>0</v>
       </c>
       <c r="O83" s="4" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="P83" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q83" s="4" t="n">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="R83" s="4" t="n">
-        <v>393.33</v>
+        <v>53.33</v>
       </c>
       <c r="S83" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T83" s="7" t="inlineStr">
         <is>
@@ -27995,12 +27995,12 @@
       </c>
       <c r="U83" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.2€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V83" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 20/02/2025</t>
         </is>
       </c>
       <c r="W83" s="4" t="inlineStr">
@@ -28012,17 +28012,17 @@
     <row r="84">
       <c r="A84" s="3" t="inlineStr">
         <is>
-          <t>7401740025</t>
+          <t>7401740024</t>
         </is>
       </c>
       <c r="B84" s="3" t="inlineStr">
         <is>
-          <t>ARGYRANTHEMUM FRUTESCENS MIX</t>
+          <t>CAREX COMANS</t>
         </is>
       </c>
       <c r="C84" s="3" t="inlineStr">
         <is>
-          <t>M105A15</t>
+          <t>2LA20</t>
         </is>
       </c>
       <c r="D84" s="3" t="inlineStr">
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="L84" s="4" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="M84" s="5" t="n">
         <v>0</v>
@@ -28065,19 +28065,19 @@
         <v>0</v>
       </c>
       <c r="O84" s="4" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="P84" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q84" s="4" t="n">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="R84" s="4" t="n">
-        <v>20</v>
+        <v>393.33</v>
       </c>
       <c r="S84" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T84" s="7" t="inlineStr">
         <is>
@@ -28086,12 +28086,12 @@
       </c>
       <c r="U84" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.2€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V84" s="4" t="inlineStr">
         <is>
-          <t>Compra 25/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W84" s="4" t="inlineStr">
@@ -28103,17 +28103,17 @@
     <row r="85">
       <c r="A85" s="3" t="inlineStr">
         <is>
-          <t>7803250006</t>
+          <t>7206100001</t>
         </is>
       </c>
       <c r="B85" s="3" t="inlineStr">
         <is>
-          <t>MATRICARIA RECUTITA (CHAMOMILLA)</t>
+          <t>PRIMULA OBCONICA</t>
         </is>
       </c>
       <c r="C85" s="3" t="inlineStr">
         <is>
-          <t>M105A10</t>
+          <t>M105A20</t>
         </is>
       </c>
       <c r="D85" s="3" t="inlineStr">
@@ -28123,12 +28123,12 @@
       </c>
       <c r="E85" s="4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F85" s="4" t="inlineStr">
         <is>
-          <t>AROMATICAS</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G85" s="4" t="n">
@@ -28147,7 +28147,7 @@
         <v>0</v>
       </c>
       <c r="L85" s="4" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="M85" s="5" t="n">
         <v>0</v>
@@ -28156,16 +28156,16 @@
         <v>0</v>
       </c>
       <c r="O85" s="4" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="P85" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q85" s="4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R85" s="4" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="S85" s="5" t="n">
         <v>0</v>
@@ -28182,7 +28182,7 @@
       </c>
       <c r="V85" s="4" t="inlineStr">
         <is>
-          <t>Compra 25/02/2025</t>
+          <t>Compra 28/02/2025</t>
         </is>
       </c>
       <c r="W85" s="4" t="inlineStr">
@@ -28194,17 +28194,17 @@
     <row r="86">
       <c r="A86" s="3" t="inlineStr">
         <is>
-          <t>7804230001</t>
+          <t>7803250006</t>
         </is>
       </c>
       <c r="B86" s="3" t="inlineStr">
         <is>
-          <t>THYMUS VULGARIS COMPACTUS</t>
+          <t>MATRICARIA RECUTITA (CHAMOMILLA)</t>
         </is>
       </c>
       <c r="C86" s="3" t="inlineStr">
         <is>
-          <t>2LA30</t>
+          <t>M105A10</t>
         </is>
       </c>
       <c r="D86" s="3" t="inlineStr">
@@ -28238,7 +28238,7 @@
         <v>0</v>
       </c>
       <c r="L86" s="4" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="M86" s="5" t="n">
         <v>0</v>
@@ -28247,19 +28247,19 @@
         <v>0</v>
       </c>
       <c r="O86" s="4" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="P86" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q86" s="4" t="n">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="R86" s="4" t="n">
-        <v>393.33</v>
+        <v>20</v>
       </c>
       <c r="S86" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T86" s="7" t="inlineStr">
         <is>
@@ -28268,12 +28268,12 @@
       </c>
       <c r="U86" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.83€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V86" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 25/02/2025</t>
         </is>
       </c>
       <c r="W86" s="4" t="inlineStr">
@@ -28285,17 +28285,17 @@
     <row r="87">
       <c r="A87" s="3" t="inlineStr">
         <is>
-          <t>7901010002</t>
+          <t>7401740034</t>
         </is>
       </c>
       <c r="B87" s="3" t="inlineStr">
         <is>
-          <t>FRAGARIA VESCA</t>
+          <t>SPIRAEA JAPONICA "ANTHONY WATERER"</t>
         </is>
       </c>
       <c r="C87" s="3" t="inlineStr">
         <is>
-          <t>M105A10</t>
+          <t>3LA55</t>
         </is>
       </c>
       <c r="D87" s="3" t="inlineStr">
@@ -28305,12 +28305,12 @@
       </c>
       <c r="E87" s="4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F87" s="4" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G87" s="4" t="n">
@@ -28329,7 +28329,7 @@
         <v>0</v>
       </c>
       <c r="L87" s="4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M87" s="5" t="n">
         <v>0</v>
@@ -28338,7 +28338,7 @@
         <v>0</v>
       </c>
       <c r="O87" s="4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P87" s="4" t="n">
         <v>59</v>
@@ -28359,7 +28359,7 @@
       </c>
       <c r="U87" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.89€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 13.61€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V87" s="4" t="inlineStr">
@@ -28376,17 +28376,17 @@
     <row r="88">
       <c r="A88" s="3" t="inlineStr">
         <is>
-          <t>7904120005</t>
+          <t>7206030005</t>
         </is>
       </c>
       <c r="B88" s="3" t="inlineStr">
         <is>
-          <t>LECHUGA ICEBERG</t>
+          <t>CYCLAMEN VINO TINTO</t>
         </is>
       </c>
       <c r="C88" s="3" t="inlineStr">
         <is>
-          <t>PACK6</t>
+          <t>M13A25</t>
         </is>
       </c>
       <c r="D88" s="3" t="inlineStr">
@@ -28396,12 +28396,12 @@
       </c>
       <c r="E88" s="4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F88" s="4" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G88" s="4" t="n">
@@ -28420,7 +28420,7 @@
         <v>0</v>
       </c>
       <c r="L88" s="4" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M88" s="5" t="n">
         <v>0</v>
@@ -28429,7 +28429,7 @@
         <v>0</v>
       </c>
       <c r="O88" s="4" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="P88" s="4" t="n">
         <v>59</v>
@@ -28450,7 +28450,7 @@
       </c>
       <c r="U88" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 12.25€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 16.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V88" s="4" t="inlineStr">
@@ -28467,17 +28467,17 @@
     <row r="89">
       <c r="A89" s="3" t="inlineStr">
         <is>
-          <t>7104090001</t>
+          <t>7805110001</t>
         </is>
       </c>
       <c r="B89" s="3" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>SALVIA FARINACEA</t>
         </is>
       </c>
       <c r="C89" s="3" t="inlineStr">
         <is>
-          <t>PACK6</t>
+          <t>2I5LA40</t>
         </is>
       </c>
       <c r="D89" s="3" t="inlineStr">
@@ -28487,12 +28487,12 @@
       </c>
       <c r="E89" s="4" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F89" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN BDJA.</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G89" s="4" t="n">
@@ -28511,7 +28511,7 @@
         <v>0</v>
       </c>
       <c r="L89" s="4" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="M89" s="5" t="n">
         <v>0</v>
@@ -28520,7 +28520,7 @@
         <v>0</v>
       </c>
       <c r="O89" s="4" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="P89" s="4" t="n">
         <v>59</v>
@@ -28541,7 +28541,7 @@
       </c>
       <c r="U89" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 23.27€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 11.94€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V89" s="4" t="inlineStr">
@@ -28558,12 +28558,12 @@
     <row r="90">
       <c r="A90" s="3" t="inlineStr">
         <is>
-          <t>7203280001</t>
+          <t>7805020001</t>
         </is>
       </c>
       <c r="B90" s="3" t="inlineStr">
         <is>
-          <t>LANTANA CAMARA</t>
+          <t>LAVANDULA ANGUSTIFOLIA</t>
         </is>
       </c>
       <c r="C90" s="3" t="inlineStr">
@@ -28578,12 +28578,12 @@
       </c>
       <c r="E90" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>78</t>
         </is>
       </c>
       <c r="F90" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>AROMATICAS</t>
         </is>
       </c>
       <c r="G90" s="4" t="n">
@@ -28602,7 +28602,7 @@
         <v>0</v>
       </c>
       <c r="L90" s="4" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="M90" s="5" t="n">
         <v>0</v>
@@ -28611,7 +28611,7 @@
         <v>0</v>
       </c>
       <c r="O90" s="4" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="P90" s="4" t="n">
         <v>59</v>
@@ -28632,7 +28632,7 @@
       </c>
       <c r="U90" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 47.43€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 23.76€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V90" s="4" t="inlineStr">
@@ -28649,17 +28649,17 @@
     <row r="91">
       <c r="A91" s="3" t="inlineStr">
         <is>
-          <t>7202140002</t>
+          <t>7401740035</t>
         </is>
       </c>
       <c r="B91" s="3" t="inlineStr">
         <is>
-          <t>SOLENOSTEMON HYBRIDA SCUTELLARIOIDES</t>
+          <t>ANGELONIA ANGUSTIFOLIA</t>
         </is>
       </c>
       <c r="C91" s="3" t="inlineStr">
         <is>
-          <t>M13A20</t>
+          <t>2I5LA40</t>
         </is>
       </c>
       <c r="D91" s="3" t="inlineStr">
@@ -28669,12 +28669,12 @@
       </c>
       <c r="E91" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F91" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G91" s="4" t="n">
@@ -28693,7 +28693,7 @@
         <v>0</v>
       </c>
       <c r="L91" s="4" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="M91" s="5" t="n">
         <v>0</v>
@@ -28702,7 +28702,7 @@
         <v>0</v>
       </c>
       <c r="O91" s="4" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="P91" s="4" t="n">
         <v>59</v>
@@ -28723,7 +28723,7 @@
       </c>
       <c r="U91" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.12€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 19.82€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V91" s="4" t="inlineStr">
@@ -28740,24 +28740,32 @@
     <row r="92">
       <c r="A92" s="3" t="inlineStr">
         <is>
-          <t>7201420001</t>
+          <t>7401150001</t>
         </is>
       </c>
       <c r="B92" s="3" t="inlineStr">
         <is>
-          <t>TAGETES ERECTA</t>
-        </is>
-      </c>
-      <c r="C92" s="3" t="inlineStr"/>
-      <c r="D92" s="3" t="inlineStr"/>
+          <t>CAMPANULA MEZCLA</t>
+        </is>
+      </c>
+      <c r="C92" s="3" t="inlineStr">
+        <is>
+          <t>M105A20</t>
+        </is>
+      </c>
+      <c r="D92" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E92" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F92" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G92" s="4" t="n">
@@ -28776,7 +28784,7 @@
         <v>0</v>
       </c>
       <c r="L92" s="4" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="M92" s="5" t="n">
         <v>0</v>
@@ -28785,19 +28793,19 @@
         <v>0</v>
       </c>
       <c r="O92" s="4" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="P92" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q92" s="4" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R92" s="4" t="n">
-        <v>393.33</v>
+        <v>0</v>
       </c>
       <c r="S92" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T92" s="7" t="inlineStr">
         <is>
@@ -28806,12 +28814,12 @@
       </c>
       <c r="U92" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.7€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V92" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 28/02/2025</t>
         </is>
       </c>
       <c r="W92" s="4" t="inlineStr">
@@ -28823,17 +28831,17 @@
     <row r="93">
       <c r="A93" s="3" t="inlineStr">
         <is>
-          <t>7905030000</t>
+          <t>7202520004</t>
         </is>
       </c>
       <c r="B93" s="3" t="inlineStr">
         <is>
-          <t>APIUM GRAVEOLENS (APIO)</t>
+          <t>NARCISSUS TETE A TETE AMARILLO</t>
         </is>
       </c>
       <c r="C93" s="3" t="inlineStr">
         <is>
-          <t>PACK6</t>
+          <t>M12A20</t>
         </is>
       </c>
       <c r="D93" s="3" t="inlineStr">
@@ -28843,12 +28851,12 @@
       </c>
       <c r="E93" s="4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F93" s="4" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G93" s="4" t="n">
@@ -28867,7 +28875,7 @@
         <v>0</v>
       </c>
       <c r="L93" s="4" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="M93" s="5" t="n">
         <v>0</v>
@@ -28876,16 +28884,16 @@
         <v>0</v>
       </c>
       <c r="O93" s="4" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="P93" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q93" s="4" t="n">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="R93" s="4" t="n">
-        <v>253.33</v>
+        <v>393.33</v>
       </c>
       <c r="S93" s="5" t="n">
         <v>30</v>
@@ -28897,12 +28905,12 @@
       </c>
       <c r="U93" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 20.79€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V93" s="4" t="inlineStr">
         <is>
-          <t>Compra 21/01/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W93" s="4" t="inlineStr">
@@ -28914,17 +28922,17 @@
     <row r="94">
       <c r="A94" s="3" t="inlineStr">
         <is>
-          <t>7202290001</t>
+          <t>7401340000</t>
         </is>
       </c>
       <c r="B94" s="3" t="inlineStr">
         <is>
-          <t>LOBELIA ERINUS TRICOLOR</t>
+          <t>GAURA LINDHEIMERI</t>
         </is>
       </c>
       <c r="C94" s="3" t="inlineStr">
         <is>
-          <t>3I6LCOLG</t>
+          <t>2I5LA25</t>
         </is>
       </c>
       <c r="D94" s="3" t="inlineStr">
@@ -28934,12 +28942,12 @@
       </c>
       <c r="E94" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F94" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS PARA MACIZOS EN MAC.</t>
+          <t>VIVACES EN MACETA</t>
         </is>
       </c>
       <c r="G94" s="4" t="n">
@@ -28958,7 +28966,7 @@
         <v>0</v>
       </c>
       <c r="L94" s="4" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="M94" s="5" t="n">
         <v>0</v>
@@ -28967,19 +28975,19 @@
         <v>0</v>
       </c>
       <c r="O94" s="4" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="P94" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q94" s="4" t="n">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="R94" s="4" t="n">
-        <v>20</v>
+        <v>393.33</v>
       </c>
       <c r="S94" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T94" s="7" t="inlineStr">
         <is>
@@ -28988,12 +28996,12 @@
       </c>
       <c r="U94" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 32.26€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V94" s="4" t="inlineStr">
         <is>
-          <t>Compra 25/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W94" s="4" t="inlineStr">
@@ -29005,17 +29013,17 @@
     <row r="95">
       <c r="A95" s="3" t="inlineStr">
         <is>
-          <t>7401740038</t>
+          <t>7901010004</t>
         </is>
       </c>
       <c r="B95" s="3" t="inlineStr">
         <is>
-          <t>STACHYS BYZANTINA</t>
+          <t>FRAGARIA ANANASSA RED ROSE MIAM</t>
         </is>
       </c>
       <c r="C95" s="3" t="inlineStr">
         <is>
-          <t>2I5LA30</t>
+          <t>1LA30</t>
         </is>
       </c>
       <c r="D95" s="3" t="inlineStr">
@@ -29025,12 +29033,12 @@
       </c>
       <c r="E95" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F95" s="4" t="inlineStr">
         <is>
-          <t>VIVACES EN MACETA</t>
+          <t>FRESALES/HORTICOLAS</t>
         </is>
       </c>
       <c r="G95" s="4" t="n">
@@ -29049,7 +29057,7 @@
         <v>0</v>
       </c>
       <c r="L95" s="4" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="M95" s="5" t="n">
         <v>0</v>
@@ -29058,7 +29066,7 @@
         <v>0</v>
       </c>
       <c r="O95" s="4" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="P95" s="4" t="n">
         <v>59</v>
@@ -29079,7 +29087,7 @@
       </c>
       <c r="U95" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 40.1€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.34€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V95" s="4" t="inlineStr">
@@ -29096,32 +29104,24 @@
     <row r="96">
       <c r="A96" s="3" t="inlineStr">
         <is>
-          <t>7905070001</t>
+          <t>7201400002</t>
         </is>
       </c>
       <c r="B96" s="3" t="inlineStr">
         <is>
-          <t>CEBOLLA FIGUERAS</t>
-        </is>
-      </c>
-      <c r="C96" s="3" t="inlineStr">
-        <is>
-          <t>PACK12</t>
-        </is>
-      </c>
-      <c r="D96" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>PORTULACA UMBRATICOLA</t>
+        </is>
+      </c>
+      <c r="C96" s="3" t="inlineStr"/>
+      <c r="D96" s="3" t="inlineStr"/>
       <c r="E96" s="4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F96" s="4" t="inlineStr">
         <is>
-          <t>FRESALES/HORTICOLAS</t>
+          <t>PLANTAS PARA MACIZOS EN MAC.</t>
         </is>
       </c>
       <c r="G96" s="4" t="n">
@@ -29140,7 +29140,7 @@
         <v>0</v>
       </c>
       <c r="L96" s="4" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="M96" s="5" t="n">
         <v>0</v>
@@ -29149,19 +29149,19 @@
         <v>0</v>
       </c>
       <c r="O96" s="4" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="P96" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q96" s="4" t="n">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="R96" s="4" t="n">
-        <v>20</v>
+        <v>393.33</v>
       </c>
       <c r="S96" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T96" s="7" t="inlineStr">
         <is>
@@ -29170,12 +29170,12 @@
       </c>
       <c r="U96" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 2.58€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V96" s="4" t="inlineStr">
         <is>
-          <t>Compra 25/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W96" s="4" t="inlineStr">
